--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>AIU</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>137300</v>
+        <v>499900</v>
       </c>
       <c r="E8" s="3">
-        <v>100900</v>
+        <v>136000</v>
       </c>
       <c r="F8" s="3">
-        <v>149000</v>
+        <v>100000</v>
       </c>
       <c r="G8" s="3">
-        <v>109800</v>
+        <v>147600</v>
       </c>
       <c r="H8" s="3">
-        <v>130500</v>
+        <v>108800</v>
       </c>
       <c r="I8" s="3">
-        <v>117500</v>
+        <v>129400</v>
       </c>
       <c r="J8" s="3">
+        <v>116400</v>
+      </c>
+      <c r="K8" s="3">
         <v>193200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>161100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>305700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>79200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>69600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>93600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>70500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>77300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>98300</v>
+      </c>
+      <c r="L9" s="3">
         <v>79900</v>
       </c>
-      <c r="E9" s="3">
-        <v>70200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>94500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>71100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>78000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>76100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>98300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>79900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>57300</v>
+        <v>194200</v>
       </c>
       <c r="E10" s="3">
-        <v>30700</v>
+        <v>56800</v>
       </c>
       <c r="F10" s="3">
-        <v>54500</v>
+        <v>30400</v>
       </c>
       <c r="G10" s="3">
-        <v>38600</v>
+        <v>54000</v>
       </c>
       <c r="H10" s="3">
-        <v>52500</v>
+        <v>38300</v>
       </c>
       <c r="I10" s="3">
-        <v>41400</v>
+        <v>52000</v>
       </c>
       <c r="J10" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K10" s="3">
         <v>94900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>153600</v>
+        <v>1210000</v>
       </c>
       <c r="E17" s="3">
-        <v>125000</v>
+        <v>152200</v>
       </c>
       <c r="F17" s="3">
-        <v>166000</v>
+        <v>123900</v>
       </c>
       <c r="G17" s="3">
-        <v>121200</v>
+        <v>164500</v>
       </c>
       <c r="H17" s="3">
-        <v>138600</v>
+        <v>120100</v>
       </c>
       <c r="I17" s="3">
-        <v>134400</v>
+        <v>137400</v>
       </c>
       <c r="J17" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K17" s="3">
         <v>182000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-16300</v>
+        <v>-710100</v>
       </c>
       <c r="E18" s="3">
-        <v>-24100</v>
+        <v>-16100</v>
       </c>
       <c r="F18" s="3">
-        <v>-17100</v>
+        <v>-23900</v>
       </c>
       <c r="G18" s="3">
-        <v>-11400</v>
+        <v>-16900</v>
       </c>
       <c r="H18" s="3">
-        <v>-8100</v>
+        <v>-11300</v>
       </c>
       <c r="I18" s="3">
-        <v>-16900</v>
+        <v>-8000</v>
       </c>
       <c r="J18" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,42 +1042,46 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-50700</v>
-      </c>
       <c r="H20" s="3">
+        <v>-50200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J20" s="3">
         <v>4600</v>
       </c>
-      <c r="I20" s="3">
-        <v>4600</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-688100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1061,101 +1098,113 @@
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>47000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
-        <v>4500</v>
-      </c>
       <c r="G22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H22" s="3">
         <v>4200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-23500</v>
+        <v>-727800</v>
       </c>
       <c r="E23" s="3">
-        <v>-25700</v>
+        <v>-23300</v>
       </c>
       <c r="F23" s="3">
-        <v>-27400</v>
+        <v>-25400</v>
       </c>
       <c r="G23" s="3">
-        <v>-66300</v>
+        <v>-27200</v>
       </c>
       <c r="H23" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6300</v>
       </c>
-      <c r="I23" s="3">
-        <v>-16100</v>
-      </c>
       <c r="J23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K23" s="3">
         <v>18100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-22500</v>
+        <v>-732300</v>
       </c>
       <c r="E26" s="3">
-        <v>-23800</v>
+        <v>-22300</v>
       </c>
       <c r="F26" s="3">
-        <v>-25900</v>
+        <v>-23600</v>
       </c>
       <c r="G26" s="3">
-        <v>-66000</v>
+        <v>-25600</v>
       </c>
       <c r="H26" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="I26" s="3">
-        <v>-15600</v>
-      </c>
       <c r="J26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="K26" s="3">
         <v>11600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25300</v>
+        <v>-728300</v>
       </c>
       <c r="E27" s="3">
-        <v>-23500</v>
+        <v>-25100</v>
       </c>
       <c r="F27" s="3">
-        <v>-25000</v>
+        <v>-23300</v>
       </c>
       <c r="G27" s="3">
-        <v>-66900</v>
+        <v>-24700</v>
       </c>
       <c r="H27" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-13300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K27" s="3">
         <v>12900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5900</v>
       </c>
-      <c r="G32" s="3">
-        <v>50700</v>
-      </c>
       <c r="H32" s="3">
+        <v>50200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4600</v>
       </c>
-      <c r="I32" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25300</v>
+        <v>-728300</v>
       </c>
       <c r="E33" s="3">
-        <v>-23500</v>
+        <v>-25100</v>
       </c>
       <c r="F33" s="3">
-        <v>-25000</v>
+        <v>-23300</v>
       </c>
       <c r="G33" s="3">
-        <v>-66900</v>
+        <v>-24700</v>
       </c>
       <c r="H33" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-13300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K33" s="3">
         <v>12900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25300</v>
+        <v>-728300</v>
       </c>
       <c r="E35" s="3">
-        <v>-23500</v>
+        <v>-25100</v>
       </c>
       <c r="F35" s="3">
-        <v>-25000</v>
+        <v>-23300</v>
       </c>
       <c r="G35" s="3">
-        <v>-66900</v>
+        <v>-24700</v>
       </c>
       <c r="H35" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-13300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K35" s="3">
         <v>12900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,86 +1619,93 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77200</v>
+        <v>4300</v>
       </c>
       <c r="E41" s="3">
-        <v>118200</v>
+        <v>76500</v>
       </c>
       <c r="F41" s="3">
-        <v>170600</v>
+        <v>117100</v>
       </c>
       <c r="G41" s="3">
-        <v>194500</v>
+        <v>169100</v>
       </c>
       <c r="H41" s="3">
-        <v>163200</v>
+        <v>192800</v>
       </c>
       <c r="I41" s="3">
-        <v>175600</v>
+        <v>161700</v>
       </c>
       <c r="J41" s="3">
+        <v>174000</v>
+      </c>
+      <c r="K41" s="3">
         <v>204300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>195400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61500</v>
+        <v>11900</v>
       </c>
       <c r="E42" s="3">
-        <v>68400</v>
+        <v>60900</v>
       </c>
       <c r="F42" s="3">
-        <v>71700</v>
+        <v>67800</v>
       </c>
       <c r="G42" s="3">
-        <v>67300</v>
+        <v>71100</v>
       </c>
       <c r="H42" s="3">
-        <v>56600</v>
+        <v>66700</v>
       </c>
       <c r="I42" s="3">
-        <v>65500</v>
+        <v>56100</v>
       </c>
       <c r="J42" s="3">
+        <v>64900</v>
+      </c>
+      <c r="K42" s="3">
         <v>67000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14500</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2900</v>
       </c>
       <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
+      <c r="I43" s="3">
+        <v>2700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,153 +1745,171 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42500</v>
+        <v>51800</v>
       </c>
       <c r="E45" s="3">
-        <v>104900</v>
+        <v>42100</v>
       </c>
       <c r="F45" s="3">
-        <v>78400</v>
+        <v>103900</v>
       </c>
       <c r="G45" s="3">
-        <v>126300</v>
+        <v>77700</v>
       </c>
       <c r="H45" s="3">
-        <v>114300</v>
+        <v>125200</v>
       </c>
       <c r="I45" s="3">
-        <v>63200</v>
+        <v>113300</v>
       </c>
       <c r="J45" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K45" s="3">
         <v>85300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>195700</v>
+        <v>68100</v>
       </c>
       <c r="E46" s="3">
-        <v>292900</v>
+        <v>193900</v>
       </c>
       <c r="F46" s="3">
-        <v>320900</v>
+        <v>290300</v>
       </c>
       <c r="G46" s="3">
-        <v>391000</v>
+        <v>318000</v>
       </c>
       <c r="H46" s="3">
-        <v>336900</v>
+        <v>387500</v>
       </c>
       <c r="I46" s="3">
-        <v>304200</v>
+        <v>333800</v>
       </c>
       <c r="J46" s="3">
+        <v>301500</v>
+      </c>
+      <c r="K46" s="3">
         <v>356600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>415800</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>263600</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>158800</v>
+        <v>261200</v>
       </c>
       <c r="F47" s="3">
-        <v>157500</v>
+        <v>157400</v>
       </c>
       <c r="G47" s="3">
-        <v>164000</v>
+        <v>156000</v>
       </c>
       <c r="H47" s="3">
-        <v>201800</v>
+        <v>162500</v>
       </c>
       <c r="I47" s="3">
-        <v>232400</v>
+        <v>200000</v>
       </c>
       <c r="J47" s="3">
+        <v>230300</v>
+      </c>
+      <c r="K47" s="3">
         <v>222000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>287500</v>
+        <v>5400</v>
       </c>
       <c r="E48" s="3">
-        <v>300800</v>
+        <v>284900</v>
       </c>
       <c r="F48" s="3">
-        <v>303900</v>
+        <v>298000</v>
       </c>
       <c r="G48" s="3">
-        <v>315100</v>
+        <v>301200</v>
       </c>
       <c r="H48" s="3">
-        <v>344300</v>
+        <v>312200</v>
       </c>
       <c r="I48" s="3">
-        <v>366000</v>
+        <v>341200</v>
       </c>
       <c r="J48" s="3">
+        <v>362700</v>
+      </c>
+      <c r="K48" s="3">
         <v>83700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>82300</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>220700</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>255200</v>
+        <v>218700</v>
       </c>
       <c r="F49" s="3">
-        <v>259300</v>
+        <v>252900</v>
       </c>
       <c r="G49" s="3">
-        <v>190800</v>
+        <v>256900</v>
       </c>
       <c r="H49" s="3">
-        <v>195100</v>
+        <v>189100</v>
       </c>
       <c r="I49" s="3">
-        <v>143500</v>
+        <v>193400</v>
       </c>
       <c r="J49" s="3">
+        <v>142200</v>
+      </c>
+      <c r="K49" s="3">
         <v>145000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>63400</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>123500</v>
+        <v>62800</v>
       </c>
       <c r="F52" s="3">
         <v>122400</v>
       </c>
       <c r="G52" s="3">
-        <v>70500</v>
+        <v>121300</v>
       </c>
       <c r="H52" s="3">
-        <v>65400</v>
+        <v>69900</v>
       </c>
       <c r="I52" s="3">
-        <v>94900</v>
+        <v>64800</v>
       </c>
       <c r="J52" s="3">
+        <v>94000</v>
+      </c>
+      <c r="K52" s="3">
         <v>87500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1030800</v>
+        <v>73500</v>
       </c>
       <c r="E54" s="3">
-        <v>1131100</v>
+        <v>1021500</v>
       </c>
       <c r="F54" s="3">
-        <v>1163900</v>
+        <v>1120900</v>
       </c>
       <c r="G54" s="3">
-        <v>1131400</v>
+        <v>1153400</v>
       </c>
       <c r="H54" s="3">
-        <v>1143600</v>
+        <v>1121100</v>
       </c>
       <c r="I54" s="3">
-        <v>1141000</v>
+        <v>1133200</v>
       </c>
       <c r="J54" s="3">
+        <v>1130700</v>
+      </c>
+      <c r="K54" s="3">
         <v>894700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>895200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,8 +2095,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1988,159 +2119,177 @@
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>151100</v>
+        <v>147800</v>
       </c>
       <c r="E58" s="3">
-        <v>164300</v>
+        <v>149700</v>
       </c>
       <c r="F58" s="3">
-        <v>159900</v>
+        <v>162800</v>
       </c>
       <c r="G58" s="3">
-        <v>150200</v>
+        <v>158400</v>
       </c>
       <c r="H58" s="3">
-        <v>65700</v>
+        <v>148900</v>
       </c>
       <c r="I58" s="3">
-        <v>58900</v>
+        <v>65100</v>
       </c>
       <c r="J58" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K58" s="3">
         <v>47400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>614600</v>
+        <v>541100</v>
       </c>
       <c r="E59" s="3">
-        <v>612300</v>
+        <v>609100</v>
       </c>
       <c r="F59" s="3">
-        <v>594100</v>
+        <v>606700</v>
       </c>
       <c r="G59" s="3">
-        <v>534500</v>
+        <v>588800</v>
       </c>
       <c r="H59" s="3">
-        <v>544700</v>
+        <v>529700</v>
       </c>
       <c r="I59" s="3">
-        <v>544200</v>
+        <v>539800</v>
       </c>
       <c r="J59" s="3">
+        <v>539200</v>
+      </c>
+      <c r="K59" s="3">
         <v>446700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>451600</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>765700</v>
+        <v>688900</v>
       </c>
       <c r="E60" s="3">
-        <v>776600</v>
+        <v>758800</v>
       </c>
       <c r="F60" s="3">
-        <v>754000</v>
+        <v>769600</v>
       </c>
       <c r="G60" s="3">
-        <v>684700</v>
+        <v>747200</v>
       </c>
       <c r="H60" s="3">
-        <v>610400</v>
+        <v>678500</v>
       </c>
       <c r="I60" s="3">
-        <v>603000</v>
+        <v>604900</v>
       </c>
       <c r="J60" s="3">
+        <v>597600</v>
+      </c>
+      <c r="K60" s="3">
         <v>499600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>506400</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104900</v>
+        <v>52700</v>
       </c>
       <c r="E61" s="3">
-        <v>153900</v>
+        <v>103900</v>
       </c>
       <c r="F61" s="3">
-        <v>186100</v>
+        <v>152500</v>
       </c>
       <c r="G61" s="3">
-        <v>192200</v>
+        <v>184400</v>
       </c>
       <c r="H61" s="3">
-        <v>197100</v>
+        <v>190500</v>
       </c>
       <c r="I61" s="3">
-        <v>181600</v>
+        <v>195300</v>
       </c>
       <c r="J61" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K61" s="3">
         <v>198300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>196900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>139000</v>
+        <v>6700</v>
       </c>
       <c r="E62" s="3">
-        <v>155500</v>
+        <v>137800</v>
       </c>
       <c r="F62" s="3">
-        <v>158700</v>
+        <v>154100</v>
       </c>
       <c r="G62" s="3">
-        <v>171200</v>
+        <v>157300</v>
       </c>
       <c r="H62" s="3">
-        <v>185100</v>
+        <v>169600</v>
       </c>
       <c r="I62" s="3">
-        <v>199800</v>
+        <v>183400</v>
       </c>
       <c r="J62" s="3">
+        <v>198000</v>
+      </c>
+      <c r="K62" s="3">
         <v>26200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1013600</v>
+        <v>749800</v>
       </c>
       <c r="E66" s="3">
-        <v>1090900</v>
+        <v>1004500</v>
       </c>
       <c r="F66" s="3">
-        <v>1104900</v>
+        <v>1081000</v>
       </c>
       <c r="G66" s="3">
-        <v>1053100</v>
+        <v>1094900</v>
       </c>
       <c r="H66" s="3">
-        <v>997600</v>
+        <v>1043600</v>
       </c>
       <c r="I66" s="3">
-        <v>991500</v>
+        <v>988600</v>
       </c>
       <c r="J66" s="3">
+        <v>982600</v>
+      </c>
+      <c r="K66" s="3">
         <v>733700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>741900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-790000</v>
+        <v>-1469400</v>
       </c>
       <c r="E72" s="3">
-        <v>-759700</v>
+        <v>-782900</v>
       </c>
       <c r="F72" s="3">
-        <v>-740200</v>
+        <v>-752900</v>
       </c>
       <c r="G72" s="3">
-        <v>-715200</v>
+        <v>-733500</v>
       </c>
       <c r="H72" s="3">
-        <v>-648300</v>
+        <v>-708700</v>
       </c>
       <c r="I72" s="3">
-        <v>-645900</v>
+        <v>-642400</v>
       </c>
       <c r="J72" s="3">
+        <v>-640100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-632600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-645500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17200</v>
+        <v>-676400</v>
       </c>
       <c r="E76" s="3">
-        <v>40200</v>
+        <v>17100</v>
       </c>
       <c r="F76" s="3">
-        <v>59000</v>
+        <v>39900</v>
       </c>
       <c r="G76" s="3">
-        <v>78200</v>
+        <v>58500</v>
       </c>
       <c r="H76" s="3">
-        <v>145900</v>
+        <v>77500</v>
       </c>
       <c r="I76" s="3">
-        <v>149500</v>
+        <v>144600</v>
       </c>
       <c r="J76" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K76" s="3">
         <v>161000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25300</v>
+        <v>-728300</v>
       </c>
       <c r="E81" s="3">
-        <v>-23500</v>
+        <v>-25100</v>
       </c>
       <c r="F81" s="3">
-        <v>-25000</v>
+        <v>-23300</v>
       </c>
       <c r="G81" s="3">
-        <v>-66900</v>
+        <v>-24700</v>
       </c>
       <c r="H81" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-13300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K81" s="3">
         <v>12900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,13 +2832,14 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3">
+        <v>25300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>8</v>
@@ -2657,14 +2856,17 @@
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>25900</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,19 +3022,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>18500</v>
+        <v>20200</v>
       </c>
       <c r="E89" s="3">
-        <v>10700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>8</v>
+        <v>18300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>10600</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>8</v>
@@ -2831,14 +3048,17 @@
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>50900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,13 +3070,14 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-3000</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -2873,14 +3094,17 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-41800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,19 +3164,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>15700</v>
+        <v>-21600</v>
       </c>
       <c r="E94" s="3">
-        <v>17900</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+        <v>15600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>17800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>8</v>
@@ -2960,14 +3190,17 @@
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-205200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,19 +3338,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>60100</v>
+        <v>-136600</v>
       </c>
       <c r="E100" s="3">
-        <v>21600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+        <v>59600</v>
+      </c>
+      <c r="F100" s="3">
+        <v>21500</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -3118,19 +3364,22 @@
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>145600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>-2300</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -3147,19 +3396,22 @@
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>5000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-140300</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>8</v>
@@ -3176,10 +3428,13 @@
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3600</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AIU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>499900</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>136000</v>
+        <v>476500</v>
       </c>
       <c r="F8" s="3">
-        <v>100000</v>
+        <v>129700</v>
       </c>
       <c r="G8" s="3">
-        <v>147600</v>
+        <v>95300</v>
       </c>
       <c r="H8" s="3">
-        <v>108800</v>
+        <v>140700</v>
       </c>
       <c r="I8" s="3">
-        <v>129400</v>
+        <v>103700</v>
       </c>
       <c r="J8" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K8" s="3">
         <v>116400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>193200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>161100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>305700</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>79200</v>
+        <v>291400</v>
       </c>
       <c r="F9" s="3">
-        <v>69600</v>
+        <v>75500</v>
       </c>
       <c r="G9" s="3">
-        <v>93600</v>
+        <v>66300</v>
       </c>
       <c r="H9" s="3">
-        <v>70500</v>
+        <v>89300</v>
       </c>
       <c r="I9" s="3">
-        <v>77300</v>
+        <v>67200</v>
       </c>
       <c r="J9" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K9" s="3">
         <v>75400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>98300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>79900</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>194200</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
-        <v>56800</v>
+        <v>185100</v>
       </c>
       <c r="F10" s="3">
-        <v>30400</v>
+        <v>54200</v>
       </c>
       <c r="G10" s="3">
-        <v>54000</v>
+        <v>29000</v>
       </c>
       <c r="H10" s="3">
-        <v>38300</v>
+        <v>51500</v>
       </c>
       <c r="I10" s="3">
-        <v>52000</v>
+        <v>36500</v>
       </c>
       <c r="J10" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K10" s="3">
         <v>41000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>81200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +839,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +872,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +907,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1210000</v>
+        <v>50200</v>
       </c>
       <c r="E17" s="3">
-        <v>152200</v>
+        <v>1153400</v>
       </c>
       <c r="F17" s="3">
-        <v>123900</v>
+        <v>145000</v>
       </c>
       <c r="G17" s="3">
-        <v>164500</v>
+        <v>118100</v>
       </c>
       <c r="H17" s="3">
-        <v>120100</v>
+        <v>156800</v>
       </c>
       <c r="I17" s="3">
-        <v>137400</v>
+        <v>114500</v>
       </c>
       <c r="J17" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K17" s="3">
         <v>133200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>182000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-710100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-676900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-16100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-11300</v>
-      </c>
       <c r="I18" s="3">
-        <v>-8000</v>
+        <v>-10800</v>
       </c>
       <c r="J18" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,48 +1076,52 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-3400</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>-3200</v>
       </c>
       <c r="F20" s="3">
-        <v>2300</v>
+        <v>-3000</v>
       </c>
       <c r="G20" s="3">
-        <v>-5900</v>
+        <v>2200</v>
       </c>
       <c r="H20" s="3">
-        <v>-50200</v>
+        <v>-5600</v>
       </c>
       <c r="I20" s="3">
-        <v>4500</v>
+        <v>-47900</v>
       </c>
       <c r="J20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-688100</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-656000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1101,110 +1138,122 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>47000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
-        <v>4000</v>
+        <v>13700</v>
       </c>
       <c r="F22" s="3">
         <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>4400</v>
+        <v>3600</v>
       </c>
       <c r="H22" s="3">
         <v>4200</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-727800</v>
+        <v>-51800</v>
       </c>
       <c r="E23" s="3">
-        <v>-23300</v>
+        <v>-693800</v>
       </c>
       <c r="F23" s="3">
-        <v>-25400</v>
+        <v>-22200</v>
       </c>
       <c r="G23" s="3">
-        <v>-27200</v>
+        <v>-24200</v>
       </c>
       <c r="H23" s="3">
-        <v>-65700</v>
+        <v>-25900</v>
       </c>
       <c r="I23" s="3">
-        <v>-6300</v>
+        <v>-62600</v>
       </c>
       <c r="J23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G24" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-400</v>
+        <v>-1500</v>
       </c>
       <c r="I24" s="3">
-        <v>-3100</v>
+        <v>-300</v>
       </c>
       <c r="J24" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-732300</v>
+        <v>-51800</v>
       </c>
       <c r="E26" s="3">
-        <v>-22300</v>
+        <v>-698100</v>
       </c>
       <c r="F26" s="3">
-        <v>-23600</v>
+        <v>-21200</v>
       </c>
       <c r="G26" s="3">
-        <v>-25600</v>
+        <v>-22500</v>
       </c>
       <c r="H26" s="3">
-        <v>-65400</v>
+        <v>-24400</v>
       </c>
       <c r="I26" s="3">
-        <v>-3200</v>
+        <v>-62300</v>
       </c>
       <c r="J26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-728300</v>
+        <v>-45400</v>
       </c>
       <c r="E27" s="3">
-        <v>-25100</v>
+        <v>-694300</v>
       </c>
       <c r="F27" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="G27" s="3">
-        <v>-24700</v>
+        <v>-22200</v>
       </c>
       <c r="H27" s="3">
-        <v>-66300</v>
+        <v>-23600</v>
       </c>
       <c r="I27" s="3">
-        <v>-2400</v>
+        <v>-63200</v>
       </c>
       <c r="J27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,31 +1389,34 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-103400</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>3400</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>3200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2300</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="3">
-        <v>5900</v>
+        <v>-2200</v>
       </c>
       <c r="H32" s="3">
-        <v>50200</v>
+        <v>5600</v>
       </c>
       <c r="I32" s="3">
-        <v>-4500</v>
+        <v>47900</v>
       </c>
       <c r="J32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-728300</v>
+        <v>-148800</v>
       </c>
       <c r="E33" s="3">
-        <v>-25100</v>
+        <v>-694300</v>
       </c>
       <c r="F33" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="G33" s="3">
-        <v>-24700</v>
+        <v>-22200</v>
       </c>
       <c r="H33" s="3">
-        <v>-66300</v>
+        <v>-23600</v>
       </c>
       <c r="I33" s="3">
-        <v>-2400</v>
+        <v>-63200</v>
       </c>
       <c r="J33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-728300</v>
+        <v>-148800</v>
       </c>
       <c r="E35" s="3">
-        <v>-25100</v>
+        <v>-694300</v>
       </c>
       <c r="F35" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="G35" s="3">
-        <v>-24700</v>
+        <v>-22200</v>
       </c>
       <c r="H35" s="3">
-        <v>-66300</v>
+        <v>-23600</v>
       </c>
       <c r="I35" s="3">
-        <v>-2400</v>
+        <v>-63200</v>
       </c>
       <c r="J35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,95 +1706,102 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4300</v>
+        <v>25900</v>
       </c>
       <c r="E41" s="3">
-        <v>76500</v>
+        <v>4100</v>
       </c>
       <c r="F41" s="3">
-        <v>117100</v>
+        <v>72900</v>
       </c>
       <c r="G41" s="3">
-        <v>169100</v>
+        <v>111700</v>
       </c>
       <c r="H41" s="3">
-        <v>192800</v>
+        <v>161200</v>
       </c>
       <c r="I41" s="3">
-        <v>161700</v>
+        <v>183700</v>
       </c>
       <c r="J41" s="3">
+        <v>154100</v>
+      </c>
+      <c r="K41" s="3">
         <v>174000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>204300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>195400</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11900</v>
+        <v>900</v>
       </c>
       <c r="E42" s="3">
-        <v>60900</v>
+        <v>11400</v>
       </c>
       <c r="F42" s="3">
+        <v>58100</v>
+      </c>
+      <c r="G42" s="3">
+        <v>64600</v>
+      </c>
+      <c r="H42" s="3">
         <v>67800</v>
       </c>
-      <c r="G42" s="3">
-        <v>71100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>66700</v>
-      </c>
       <c r="I42" s="3">
-        <v>56100</v>
+        <v>63500</v>
       </c>
       <c r="J42" s="3">
+        <v>53500</v>
+      </c>
+      <c r="K42" s="3">
         <v>64900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>67000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>14400</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>1500</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2800</v>
       </c>
       <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
+      <c r="J43" s="3">
+        <v>2600</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
@@ -1716,8 +1809,11 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,168 +1844,186 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51800</v>
+        <v>22200</v>
       </c>
       <c r="E45" s="3">
-        <v>42100</v>
+        <v>49400</v>
       </c>
       <c r="F45" s="3">
-        <v>103900</v>
+        <v>40100</v>
       </c>
       <c r="G45" s="3">
-        <v>77700</v>
+        <v>99000</v>
       </c>
       <c r="H45" s="3">
-        <v>125200</v>
+        <v>74100</v>
       </c>
       <c r="I45" s="3">
-        <v>113300</v>
+        <v>119400</v>
       </c>
       <c r="J45" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K45" s="3">
         <v>62600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>85300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68100</v>
+        <v>49100</v>
       </c>
       <c r="E46" s="3">
-        <v>193900</v>
+        <v>64900</v>
       </c>
       <c r="F46" s="3">
-        <v>290300</v>
+        <v>184900</v>
       </c>
       <c r="G46" s="3">
-        <v>318000</v>
+        <v>276700</v>
       </c>
       <c r="H46" s="3">
-        <v>387500</v>
+        <v>303100</v>
       </c>
       <c r="I46" s="3">
-        <v>333800</v>
+        <v>369300</v>
       </c>
       <c r="J46" s="3">
+        <v>318200</v>
+      </c>
+      <c r="K46" s="3">
         <v>301500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>356600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>415800</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>261200</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>157400</v>
+        <v>249000</v>
       </c>
       <c r="G47" s="3">
-        <v>156000</v>
+        <v>150000</v>
       </c>
       <c r="H47" s="3">
-        <v>162500</v>
+        <v>148700</v>
       </c>
       <c r="I47" s="3">
-        <v>200000</v>
+        <v>154900</v>
       </c>
       <c r="J47" s="3">
+        <v>190600</v>
+      </c>
+      <c r="K47" s="3">
         <v>230300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>222000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>284900</v>
+        <v>5100</v>
       </c>
       <c r="F48" s="3">
-        <v>298000</v>
+        <v>271500</v>
       </c>
       <c r="G48" s="3">
-        <v>301200</v>
+        <v>284100</v>
       </c>
       <c r="H48" s="3">
-        <v>312200</v>
+        <v>287100</v>
       </c>
       <c r="I48" s="3">
-        <v>341200</v>
+        <v>297600</v>
       </c>
       <c r="J48" s="3">
+        <v>325300</v>
+      </c>
+      <c r="K48" s="3">
         <v>362700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>83700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>82300</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>218700</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>252900</v>
+        <v>208500</v>
       </c>
       <c r="G49" s="3">
-        <v>256900</v>
+        <v>241000</v>
       </c>
       <c r="H49" s="3">
-        <v>189100</v>
+        <v>244900</v>
       </c>
       <c r="I49" s="3">
-        <v>193400</v>
+        <v>180200</v>
       </c>
       <c r="J49" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K49" s="3">
         <v>142200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>145000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E52" s="3">
-        <v>62800</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>122400</v>
+        <v>59900</v>
       </c>
       <c r="G52" s="3">
-        <v>121300</v>
+        <v>116700</v>
       </c>
       <c r="H52" s="3">
-        <v>69900</v>
+        <v>115600</v>
       </c>
       <c r="I52" s="3">
-        <v>64800</v>
+        <v>66600</v>
       </c>
       <c r="J52" s="3">
+        <v>61800</v>
+      </c>
+      <c r="K52" s="3">
         <v>94000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>87500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73500</v>
+        <v>51200</v>
       </c>
       <c r="E54" s="3">
-        <v>1021500</v>
+        <v>70000</v>
       </c>
       <c r="F54" s="3">
-        <v>1120900</v>
+        <v>973800</v>
       </c>
       <c r="G54" s="3">
-        <v>1153400</v>
+        <v>1068500</v>
       </c>
       <c r="H54" s="3">
-        <v>1121100</v>
+        <v>1099500</v>
       </c>
       <c r="I54" s="3">
-        <v>1133200</v>
+        <v>1068700</v>
       </c>
       <c r="J54" s="3">
+        <v>1080200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1130700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>894700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>895200</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2226,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>147800</v>
+        <v>87400</v>
       </c>
       <c r="E58" s="3">
-        <v>149700</v>
+        <v>140900</v>
       </c>
       <c r="F58" s="3">
-        <v>162800</v>
+        <v>142700</v>
       </c>
       <c r="G58" s="3">
-        <v>158400</v>
+        <v>155200</v>
       </c>
       <c r="H58" s="3">
-        <v>148900</v>
+        <v>151000</v>
       </c>
       <c r="I58" s="3">
-        <v>65100</v>
+        <v>141900</v>
       </c>
       <c r="J58" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K58" s="3">
         <v>58300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>47400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>541100</v>
+        <v>674500</v>
       </c>
       <c r="E59" s="3">
-        <v>609100</v>
+        <v>515800</v>
       </c>
       <c r="F59" s="3">
-        <v>606700</v>
+        <v>580600</v>
       </c>
       <c r="G59" s="3">
-        <v>588800</v>
+        <v>578400</v>
       </c>
       <c r="H59" s="3">
-        <v>529700</v>
+        <v>561200</v>
       </c>
       <c r="I59" s="3">
-        <v>539800</v>
+        <v>504900</v>
       </c>
       <c r="J59" s="3">
+        <v>514500</v>
+      </c>
+      <c r="K59" s="3">
         <v>539200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>446700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>451600</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>688900</v>
+        <v>761900</v>
       </c>
       <c r="E60" s="3">
-        <v>758800</v>
+        <v>656700</v>
       </c>
       <c r="F60" s="3">
-        <v>769600</v>
+        <v>723300</v>
       </c>
       <c r="G60" s="3">
-        <v>747200</v>
+        <v>733600</v>
       </c>
       <c r="H60" s="3">
-        <v>678500</v>
+        <v>712300</v>
       </c>
       <c r="I60" s="3">
-        <v>604900</v>
+        <v>646800</v>
       </c>
       <c r="J60" s="3">
+        <v>576600</v>
+      </c>
+      <c r="K60" s="3">
         <v>597600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>499600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>506400</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>52700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>103900</v>
+        <v>50300</v>
       </c>
       <c r="F61" s="3">
-        <v>152500</v>
+        <v>99000</v>
       </c>
       <c r="G61" s="3">
-        <v>184400</v>
+        <v>145400</v>
       </c>
       <c r="H61" s="3">
-        <v>190500</v>
+        <v>175800</v>
       </c>
       <c r="I61" s="3">
-        <v>195300</v>
+        <v>181600</v>
       </c>
       <c r="J61" s="3">
+        <v>186100</v>
+      </c>
+      <c r="K61" s="3">
         <v>179900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>198300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>196900</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6700</v>
+        <v>21500</v>
       </c>
       <c r="E62" s="3">
-        <v>137800</v>
+        <v>6400</v>
       </c>
       <c r="F62" s="3">
-        <v>154100</v>
+        <v>131300</v>
       </c>
       <c r="G62" s="3">
-        <v>157300</v>
+        <v>146900</v>
       </c>
       <c r="H62" s="3">
-        <v>169600</v>
+        <v>149900</v>
       </c>
       <c r="I62" s="3">
-        <v>183400</v>
+        <v>161700</v>
       </c>
       <c r="J62" s="3">
+        <v>174800</v>
+      </c>
+      <c r="K62" s="3">
         <v>198000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>749800</v>
+        <v>778500</v>
       </c>
       <c r="E66" s="3">
-        <v>1004500</v>
+        <v>714800</v>
       </c>
       <c r="F66" s="3">
-        <v>1081000</v>
+        <v>957500</v>
       </c>
       <c r="G66" s="3">
-        <v>1094900</v>
+        <v>1030500</v>
       </c>
       <c r="H66" s="3">
-        <v>1043600</v>
+        <v>1043700</v>
       </c>
       <c r="I66" s="3">
-        <v>988600</v>
+        <v>994800</v>
       </c>
       <c r="J66" s="3">
+        <v>942400</v>
+      </c>
+      <c r="K66" s="3">
         <v>982600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>733700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>741900</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1469400</v>
+        <v>-1549400</v>
       </c>
       <c r="E72" s="3">
-        <v>-782900</v>
+        <v>-1400600</v>
       </c>
       <c r="F72" s="3">
-        <v>-752900</v>
+        <v>-746200</v>
       </c>
       <c r="G72" s="3">
-        <v>-733500</v>
+        <v>-717700</v>
       </c>
       <c r="H72" s="3">
-        <v>-708700</v>
+        <v>-699200</v>
       </c>
       <c r="I72" s="3">
-        <v>-642400</v>
+        <v>-675600</v>
       </c>
       <c r="J72" s="3">
+        <v>-612400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-640100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-632600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-645500</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-676400</v>
+        <v>-727400</v>
       </c>
       <c r="E76" s="3">
-        <v>17100</v>
+        <v>-644700</v>
       </c>
       <c r="F76" s="3">
-        <v>39900</v>
+        <v>16300</v>
       </c>
       <c r="G76" s="3">
-        <v>58500</v>
+        <v>38000</v>
       </c>
       <c r="H76" s="3">
-        <v>77500</v>
+        <v>55800</v>
       </c>
       <c r="I76" s="3">
-        <v>144600</v>
+        <v>73900</v>
       </c>
       <c r="J76" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K76" s="3">
         <v>148100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>161000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-728300</v>
+        <v>-148800</v>
       </c>
       <c r="E81" s="3">
-        <v>-25100</v>
+        <v>-694300</v>
       </c>
       <c r="F81" s="3">
-        <v>-23300</v>
+        <v>-23900</v>
       </c>
       <c r="G81" s="3">
-        <v>-24700</v>
+        <v>-22200</v>
       </c>
       <c r="H81" s="3">
-        <v>-66300</v>
+        <v>-23600</v>
       </c>
       <c r="I81" s="3">
-        <v>-2400</v>
+        <v>-63200</v>
       </c>
       <c r="J81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,16 +3031,17 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>25300</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="3">
+        <v>24100</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
@@ -2859,14 +3058,17 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>25900</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,22 +3239,25 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>20200</v>
+        <v>36300</v>
       </c>
       <c r="E89" s="3">
-        <v>18300</v>
+        <v>19300</v>
       </c>
       <c r="F89" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>8</v>
+        <v>17400</v>
+      </c>
+      <c r="G89" s="3">
+        <v>10100</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>8</v>
@@ -3051,14 +3268,17 @@
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>50900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,16 +3291,17 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-2900</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -3097,14 +3318,17 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-41800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,22 +3394,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21600</v>
+        <v>11500</v>
       </c>
       <c r="E94" s="3">
-        <v>15600</v>
+        <v>-20600</v>
       </c>
       <c r="F94" s="3">
-        <v>17800</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+        <v>14800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>17000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
@@ -3193,14 +3423,17 @@
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-205200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,22 +3584,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-136600</v>
+        <v>19300</v>
       </c>
       <c r="E100" s="3">
-        <v>59600</v>
+        <v>-130200</v>
       </c>
       <c r="F100" s="3">
-        <v>21500</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+        <v>56800</v>
+      </c>
+      <c r="G100" s="3">
+        <v>20400</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
@@ -3367,22 +3613,25 @@
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>145600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3399,22 +3648,25 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>5000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-140300</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-133700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>8</v>
@@ -3431,10 +3683,13 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>AIU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>2100</v>
       </c>
       <c r="E8" s="3">
-        <v>476500</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>129700</v>
+        <v>491700</v>
       </c>
       <c r="G8" s="3">
-        <v>95300</v>
+        <v>133800</v>
       </c>
       <c r="H8" s="3">
-        <v>140700</v>
+        <v>98400</v>
       </c>
       <c r="I8" s="3">
-        <v>103700</v>
+        <v>145200</v>
       </c>
       <c r="J8" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K8" s="3">
         <v>123300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>116400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>193200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>161100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>291400</v>
+      <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>75500</v>
+        <v>300700</v>
       </c>
       <c r="G9" s="3">
-        <v>66300</v>
+        <v>77900</v>
       </c>
       <c r="H9" s="3">
-        <v>89300</v>
+        <v>68400</v>
       </c>
       <c r="I9" s="3">
-        <v>67200</v>
+        <v>92100</v>
       </c>
       <c r="J9" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K9" s="3">
         <v>73700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>75400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>98300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>79900</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>185100</v>
+      <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>54200</v>
+        <v>191000</v>
       </c>
       <c r="G10" s="3">
-        <v>29000</v>
+        <v>55900</v>
       </c>
       <c r="H10" s="3">
-        <v>51500</v>
+        <v>29900</v>
       </c>
       <c r="I10" s="3">
-        <v>36500</v>
+        <v>53100</v>
       </c>
       <c r="J10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K10" s="3">
         <v>49600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>41000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>81200</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50200</v>
+        <v>2900</v>
       </c>
       <c r="E17" s="3">
-        <v>1153400</v>
+        <v>51800</v>
       </c>
       <c r="F17" s="3">
-        <v>145000</v>
+        <v>1190000</v>
       </c>
       <c r="G17" s="3">
+        <v>149700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>121800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>161800</v>
+      </c>
+      <c r="J17" s="3">
         <v>118100</v>
       </c>
-      <c r="H17" s="3">
-        <v>156800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>114500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>130900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>133200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>182000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-800</v>
       </c>
       <c r="E18" s="3">
-        <v>-676900</v>
+        <v>-51800</v>
       </c>
       <c r="F18" s="3">
-        <v>-15400</v>
+        <v>-698300</v>
       </c>
       <c r="G18" s="3">
-        <v>-22800</v>
+        <v>-15900</v>
       </c>
       <c r="H18" s="3">
-        <v>-16100</v>
+        <v>-23500</v>
       </c>
       <c r="I18" s="3">
-        <v>-10800</v>
+        <v>-16600</v>
       </c>
       <c r="J18" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,54 +1110,58 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000</v>
+        <v>-3300</v>
       </c>
       <c r="G20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
-        <v>-5600</v>
-      </c>
       <c r="I20" s="3">
-        <v>-47900</v>
+        <v>-5800</v>
       </c>
       <c r="J20" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
-        <v>-656000</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-676800</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1141,84 +1178,93 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>47000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>5700</v>
       </c>
       <c r="E22" s="3">
-        <v>13700</v>
+        <v>1600</v>
       </c>
       <c r="F22" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-51800</v>
+        <v>-6500</v>
       </c>
       <c r="E23" s="3">
-        <v>-693800</v>
+        <v>-53400</v>
       </c>
       <c r="F23" s="3">
-        <v>-22200</v>
+        <v>-715800</v>
       </c>
       <c r="G23" s="3">
-        <v>-24200</v>
+        <v>-22900</v>
       </c>
       <c r="H23" s="3">
-        <v>-25900</v>
+        <v>-25000</v>
       </c>
       <c r="I23" s="3">
-        <v>-62600</v>
+        <v>-26700</v>
       </c>
       <c r="J23" s="3">
+        <v>-64600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,34 +1272,37 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
-        <v>4300</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H24" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
-        <v>-300</v>
-      </c>
       <c r="J24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-51800</v>
+        <v>-6500</v>
       </c>
       <c r="E26" s="3">
-        <v>-698100</v>
+        <v>-53400</v>
       </c>
       <c r="F26" s="3">
-        <v>-21200</v>
+        <v>-720200</v>
       </c>
       <c r="G26" s="3">
-        <v>-22500</v>
+        <v>-21900</v>
       </c>
       <c r="H26" s="3">
-        <v>-24400</v>
+        <v>-23200</v>
       </c>
       <c r="I26" s="3">
-        <v>-62300</v>
+        <v>-25200</v>
       </c>
       <c r="J26" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-45400</v>
+        <v>-7900</v>
       </c>
       <c r="E27" s="3">
-        <v>-694300</v>
+        <v>-46800</v>
       </c>
       <c r="F27" s="3">
-        <v>-23900</v>
+        <v>-716300</v>
       </c>
       <c r="G27" s="3">
-        <v>-22200</v>
+        <v>-24700</v>
       </c>
       <c r="H27" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="I27" s="3">
-        <v>-63200</v>
+        <v>-24300</v>
       </c>
       <c r="J27" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,16 +1450,19 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-103400</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>-5700</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-106700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1418,8 +1479,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
-        <v>5600</v>
-      </c>
       <c r="I32" s="3">
-        <v>47900</v>
+        <v>5800</v>
       </c>
       <c r="J32" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-148800</v>
+        <v>-13600</v>
       </c>
       <c r="E33" s="3">
-        <v>-694300</v>
+        <v>-153500</v>
       </c>
       <c r="F33" s="3">
-        <v>-23900</v>
+        <v>-716300</v>
       </c>
       <c r="G33" s="3">
-        <v>-22200</v>
+        <v>-24700</v>
       </c>
       <c r="H33" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="I33" s="3">
-        <v>-63200</v>
+        <v>-24300</v>
       </c>
       <c r="J33" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-148800</v>
+        <v>-13600</v>
       </c>
       <c r="E35" s="3">
-        <v>-694300</v>
+        <v>-153500</v>
       </c>
       <c r="F35" s="3">
-        <v>-23900</v>
+        <v>-716300</v>
       </c>
       <c r="G35" s="3">
-        <v>-22200</v>
+        <v>-24700</v>
       </c>
       <c r="H35" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="I35" s="3">
-        <v>-63200</v>
+        <v>-24300</v>
       </c>
       <c r="J35" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,113 +1793,123 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25900</v>
+        <v>29100</v>
       </c>
       <c r="E41" s="3">
-        <v>4100</v>
+        <v>26700</v>
       </c>
       <c r="F41" s="3">
-        <v>72900</v>
+        <v>4300</v>
       </c>
       <c r="G41" s="3">
-        <v>111700</v>
+        <v>75200</v>
       </c>
       <c r="H41" s="3">
-        <v>161200</v>
+        <v>115200</v>
       </c>
       <c r="I41" s="3">
-        <v>183700</v>
+        <v>166300</v>
       </c>
       <c r="J41" s="3">
+        <v>189600</v>
+      </c>
+      <c r="K41" s="3">
         <v>154100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>204300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>195400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>11400</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>58100</v>
+        <v>11700</v>
       </c>
       <c r="G42" s="3">
-        <v>64600</v>
+        <v>59900</v>
       </c>
       <c r="H42" s="3">
-        <v>67800</v>
+        <v>66600</v>
       </c>
       <c r="I42" s="3">
-        <v>63500</v>
+        <v>69900</v>
       </c>
       <c r="J42" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K42" s="3">
         <v>53500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>64900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>67000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>2700</v>
-      </c>
       <c r="J43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,43 +1943,49 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>22200</v>
+        <v>18000</v>
       </c>
       <c r="E45" s="3">
-        <v>49400</v>
+        <v>23000</v>
       </c>
       <c r="F45" s="3">
-        <v>40100</v>
+        <v>51000</v>
       </c>
       <c r="G45" s="3">
-        <v>99000</v>
+        <v>41400</v>
       </c>
       <c r="H45" s="3">
-        <v>74100</v>
+        <v>102200</v>
       </c>
       <c r="I45" s="3">
-        <v>119400</v>
+        <v>76400</v>
       </c>
       <c r="J45" s="3">
+        <v>123100</v>
+      </c>
+      <c r="K45" s="3">
         <v>108000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>62600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>85300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>119600</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1891,69 +1993,75 @@
         <v>49100</v>
       </c>
       <c r="E46" s="3">
-        <v>64900</v>
+        <v>50700</v>
       </c>
       <c r="F46" s="3">
-        <v>184900</v>
+        <v>67000</v>
       </c>
       <c r="G46" s="3">
-        <v>276700</v>
+        <v>190700</v>
       </c>
       <c r="H46" s="3">
-        <v>303100</v>
+        <v>285500</v>
       </c>
       <c r="I46" s="3">
-        <v>369300</v>
+        <v>312700</v>
       </c>
       <c r="J46" s="3">
+        <v>381100</v>
+      </c>
+      <c r="K46" s="3">
         <v>318200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>301500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>356600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>415800</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3">
-        <v>249000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>150000</v>
+        <v>256900</v>
       </c>
       <c r="H47" s="3">
-        <v>148700</v>
+        <v>154800</v>
       </c>
       <c r="I47" s="3">
-        <v>154900</v>
+        <v>153500</v>
       </c>
       <c r="J47" s="3">
+        <v>159800</v>
+      </c>
+      <c r="K47" s="3">
         <v>190600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>230300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>222000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>201700</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,69 +2069,75 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>271500</v>
+        <v>5300</v>
       </c>
       <c r="G48" s="3">
-        <v>284100</v>
+        <v>280200</v>
       </c>
       <c r="H48" s="3">
-        <v>287100</v>
+        <v>293100</v>
       </c>
       <c r="I48" s="3">
-        <v>297600</v>
+        <v>296200</v>
       </c>
       <c r="J48" s="3">
+        <v>307100</v>
+      </c>
+      <c r="K48" s="3">
         <v>325300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>362700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>83700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>82300</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>208500</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>241000</v>
+        <v>215100</v>
       </c>
       <c r="H49" s="3">
-        <v>244900</v>
+        <v>248700</v>
       </c>
       <c r="I49" s="3">
-        <v>180200</v>
+        <v>252700</v>
       </c>
       <c r="J49" s="3">
+        <v>186000</v>
+      </c>
+      <c r="K49" s="3">
         <v>184300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>142200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>145000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>135000</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>2000</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F52" s="3">
-        <v>59900</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>116700</v>
+        <v>61800</v>
       </c>
       <c r="H52" s="3">
-        <v>115600</v>
+        <v>120400</v>
       </c>
       <c r="I52" s="3">
-        <v>66600</v>
+        <v>119300</v>
       </c>
       <c r="J52" s="3">
+        <v>68700</v>
+      </c>
+      <c r="K52" s="3">
         <v>61800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>94000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>87500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>60300</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51200</v>
+        <v>49100</v>
       </c>
       <c r="E54" s="3">
-        <v>70000</v>
+        <v>52800</v>
       </c>
       <c r="F54" s="3">
-        <v>973800</v>
+        <v>72300</v>
       </c>
       <c r="G54" s="3">
-        <v>1068500</v>
+        <v>1004700</v>
       </c>
       <c r="H54" s="3">
-        <v>1099500</v>
+        <v>1102400</v>
       </c>
       <c r="I54" s="3">
-        <v>1068700</v>
+        <v>1134400</v>
       </c>
       <c r="J54" s="3">
+        <v>1102600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1080200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1130700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>894700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>895200</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2253,192 +2384,210 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>87400</v>
+        <v>65300</v>
       </c>
       <c r="E58" s="3">
-        <v>140900</v>
+        <v>90200</v>
       </c>
       <c r="F58" s="3">
-        <v>142700</v>
+        <v>145300</v>
       </c>
       <c r="G58" s="3">
-        <v>155200</v>
+        <v>147300</v>
       </c>
       <c r="H58" s="3">
-        <v>151000</v>
+        <v>160100</v>
       </c>
       <c r="I58" s="3">
-        <v>141900</v>
+        <v>155800</v>
       </c>
       <c r="J58" s="3">
+        <v>146400</v>
+      </c>
+      <c r="K58" s="3">
         <v>62000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>58300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>47400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>54800</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>674500</v>
+        <v>722300</v>
       </c>
       <c r="E59" s="3">
-        <v>515800</v>
+        <v>695900</v>
       </c>
       <c r="F59" s="3">
-        <v>580600</v>
+        <v>532200</v>
       </c>
       <c r="G59" s="3">
-        <v>578400</v>
+        <v>599000</v>
       </c>
       <c r="H59" s="3">
-        <v>561200</v>
+        <v>596700</v>
       </c>
       <c r="I59" s="3">
-        <v>504900</v>
+        <v>579000</v>
       </c>
       <c r="J59" s="3">
+        <v>520900</v>
+      </c>
+      <c r="K59" s="3">
         <v>514500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>539200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>446700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>451600</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>761900</v>
+        <v>787600</v>
       </c>
       <c r="E60" s="3">
-        <v>656700</v>
+        <v>786100</v>
       </c>
       <c r="F60" s="3">
-        <v>723300</v>
+        <v>677500</v>
       </c>
       <c r="G60" s="3">
-        <v>733600</v>
+        <v>746300</v>
       </c>
       <c r="H60" s="3">
-        <v>712300</v>
+        <v>756900</v>
       </c>
       <c r="I60" s="3">
-        <v>646800</v>
+        <v>734900</v>
       </c>
       <c r="J60" s="3">
+        <v>667300</v>
+      </c>
+      <c r="K60" s="3">
         <v>576600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>597600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>499600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>506400</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>34600</v>
       </c>
       <c r="E61" s="3">
-        <v>50300</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>99000</v>
+        <v>51900</v>
       </c>
       <c r="G61" s="3">
-        <v>145400</v>
+        <v>102200</v>
       </c>
       <c r="H61" s="3">
-        <v>175800</v>
+        <v>150000</v>
       </c>
       <c r="I61" s="3">
-        <v>181600</v>
+        <v>181400</v>
       </c>
       <c r="J61" s="3">
+        <v>187300</v>
+      </c>
+      <c r="K61" s="3">
         <v>186100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>179900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>198300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>196900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>6400</v>
+        <v>22200</v>
       </c>
       <c r="F62" s="3">
-        <v>131300</v>
+        <v>6600</v>
       </c>
       <c r="G62" s="3">
-        <v>146900</v>
+        <v>135500</v>
       </c>
       <c r="H62" s="3">
-        <v>149900</v>
+        <v>151500</v>
       </c>
       <c r="I62" s="3">
-        <v>161700</v>
+        <v>154700</v>
       </c>
       <c r="J62" s="3">
+        <v>166800</v>
+      </c>
+      <c r="K62" s="3">
         <v>174800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>198000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>778500</v>
+        <v>818500</v>
       </c>
       <c r="E66" s="3">
-        <v>714800</v>
+        <v>803200</v>
       </c>
       <c r="F66" s="3">
-        <v>957500</v>
+        <v>737500</v>
       </c>
       <c r="G66" s="3">
-        <v>1030500</v>
+        <v>987900</v>
       </c>
       <c r="H66" s="3">
-        <v>1043700</v>
+        <v>1063200</v>
       </c>
       <c r="I66" s="3">
-        <v>994800</v>
+        <v>1076800</v>
       </c>
       <c r="J66" s="3">
+        <v>1026400</v>
+      </c>
+      <c r="K66" s="3">
         <v>942400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>982600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>733700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>741900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1549400</v>
+        <v>-1612200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1400600</v>
+        <v>-1598600</v>
       </c>
       <c r="F72" s="3">
-        <v>-746200</v>
+        <v>-1445100</v>
       </c>
       <c r="G72" s="3">
-        <v>-717700</v>
+        <v>-769900</v>
       </c>
       <c r="H72" s="3">
-        <v>-699200</v>
+        <v>-740400</v>
       </c>
       <c r="I72" s="3">
-        <v>-675600</v>
+        <v>-721400</v>
       </c>
       <c r="J72" s="3">
+        <v>-697100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-612400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-640100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-632600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-645500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-727400</v>
+        <v>-769400</v>
       </c>
       <c r="E76" s="3">
-        <v>-644700</v>
+        <v>-750500</v>
       </c>
       <c r="F76" s="3">
-        <v>16300</v>
+        <v>-665200</v>
       </c>
       <c r="G76" s="3">
-        <v>38000</v>
+        <v>16800</v>
       </c>
       <c r="H76" s="3">
-        <v>55800</v>
+        <v>39200</v>
       </c>
       <c r="I76" s="3">
-        <v>73900</v>
+        <v>57500</v>
       </c>
       <c r="J76" s="3">
+        <v>76200</v>
+      </c>
+      <c r="K76" s="3">
         <v>137800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>148100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>161000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>153300</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-148800</v>
+        <v>-13600</v>
       </c>
       <c r="E81" s="3">
-        <v>-694300</v>
+        <v>-153500</v>
       </c>
       <c r="F81" s="3">
-        <v>-23900</v>
+        <v>-716300</v>
       </c>
       <c r="G81" s="3">
-        <v>-22200</v>
+        <v>-24700</v>
       </c>
       <c r="H81" s="3">
-        <v>-23600</v>
+        <v>-22900</v>
       </c>
       <c r="I81" s="3">
-        <v>-63200</v>
+        <v>-24300</v>
       </c>
       <c r="J81" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>16100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,19 +3230,20 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>24100</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3">
+        <v>24900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>25900</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,25 +3456,28 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>36300</v>
+        <v>-80900</v>
       </c>
       <c r="E89" s="3">
-        <v>19300</v>
+        <v>37500</v>
       </c>
       <c r="F89" s="3">
-        <v>17400</v>
+        <v>19900</v>
       </c>
       <c r="G89" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
+        <v>18000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>10400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -3271,14 +3488,17 @@
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>50900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,20 +3512,21 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3321,14 +3542,17 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-41800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,25 +3624,28 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>11500</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-20600</v>
+        <v>11900</v>
       </c>
       <c r="F94" s="3">
-        <v>14800</v>
+        <v>-21200</v>
       </c>
       <c r="G94" s="3">
-        <v>17000</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
+        <v>15300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>17500</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -3426,14 +3656,17 @@
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-205200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,25 +3830,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>19300</v>
+        <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>-130200</v>
+        <v>19900</v>
       </c>
       <c r="F100" s="3">
-        <v>56800</v>
+        <v>-134300</v>
       </c>
       <c r="G100" s="3">
-        <v>20400</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+        <v>58600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>21100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3616,25 +3862,28 @@
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>145600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-2300</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3651,25 +3900,28 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>5000</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="3">
-        <v>-133700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>8</v>
+      <c r="E102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-138000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
@@ -3686,10 +3938,13 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>AIU</t>
   </si>
@@ -736,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>491700</v>
+        <v>486600</v>
       </c>
       <c r="G8" s="3">
-        <v>133800</v>
+        <v>132400</v>
       </c>
       <c r="H8" s="3">
-        <v>98400</v>
+        <v>97300</v>
       </c>
       <c r="I8" s="3">
-        <v>145200</v>
+        <v>143700</v>
       </c>
       <c r="J8" s="3">
-        <v>107000</v>
+        <v>105900</v>
       </c>
       <c r="K8" s="3">
         <v>123300</v>
@@ -774,19 +774,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>300700</v>
+        <v>297600</v>
       </c>
       <c r="G9" s="3">
-        <v>77900</v>
+        <v>77100</v>
       </c>
       <c r="H9" s="3">
-        <v>68400</v>
+        <v>67700</v>
       </c>
       <c r="I9" s="3">
-        <v>92100</v>
+        <v>91100</v>
       </c>
       <c r="J9" s="3">
-        <v>69300</v>
+        <v>68600</v>
       </c>
       <c r="K9" s="3">
         <v>73700</v>
@@ -812,19 +812,19 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>191000</v>
+        <v>189000</v>
       </c>
       <c r="G10" s="3">
-        <v>55900</v>
+        <v>55300</v>
       </c>
       <c r="H10" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="I10" s="3">
-        <v>53100</v>
+        <v>52600</v>
       </c>
       <c r="J10" s="3">
-        <v>37700</v>
+        <v>37300</v>
       </c>
       <c r="K10" s="3">
         <v>49600</v>
@@ -1025,25 +1025,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E17" s="3">
-        <v>51800</v>
+        <v>51300</v>
       </c>
       <c r="F17" s="3">
-        <v>1190000</v>
+        <v>1177800</v>
       </c>
       <c r="G17" s="3">
-        <v>149700</v>
+        <v>148100</v>
       </c>
       <c r="H17" s="3">
-        <v>121800</v>
+        <v>120600</v>
       </c>
       <c r="I17" s="3">
-        <v>161800</v>
+        <v>160200</v>
       </c>
       <c r="J17" s="3">
-        <v>118100</v>
+        <v>116900</v>
       </c>
       <c r="K17" s="3">
         <v>130900</v>
@@ -1066,22 +1066,22 @@
         <v>-800</v>
       </c>
       <c r="E18" s="3">
-        <v>-51800</v>
+        <v>-51300</v>
       </c>
       <c r="F18" s="3">
-        <v>-698300</v>
+        <v>-691200</v>
       </c>
       <c r="G18" s="3">
-        <v>-15900</v>
+        <v>-15700</v>
       </c>
       <c r="H18" s="3">
-        <v>-23500</v>
+        <v>-23200</v>
       </c>
       <c r="I18" s="3">
-        <v>-16600</v>
+        <v>-16500</v>
       </c>
       <c r="J18" s="3">
-        <v>-11100</v>
+        <v>-11000</v>
       </c>
       <c r="K18" s="3">
         <v>-7600</v>
@@ -1132,10 +1132,10 @@
         <v>2200</v>
       </c>
       <c r="I20" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="J20" s="3">
-        <v>-49400</v>
+        <v>-48900</v>
       </c>
       <c r="K20" s="3">
         <v>4300</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-676800</v>
+        <v>-669900</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1199,7 +1199,7 @@
         <v>1600</v>
       </c>
       <c r="F22" s="3">
-        <v>14100</v>
+        <v>14000</v>
       </c>
       <c r="G22" s="3">
         <v>3900</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="E23" s="3">
-        <v>-53400</v>
+        <v>-52900</v>
       </c>
       <c r="F23" s="3">
-        <v>-715800</v>
+        <v>-708500</v>
       </c>
       <c r="G23" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="H23" s="3">
-        <v>-25000</v>
+        <v>-24700</v>
       </c>
       <c r="I23" s="3">
-        <v>-26700</v>
+        <v>-26500</v>
       </c>
       <c r="J23" s="3">
-        <v>-64600</v>
+        <v>-64000</v>
       </c>
       <c r="K23" s="3">
         <v>-6000</v>
@@ -1281,7 +1281,7 @@
         <v>-1000</v>
       </c>
       <c r="H24" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I24" s="3">
         <v>-1500</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="E26" s="3">
-        <v>-53400</v>
+        <v>-52900</v>
       </c>
       <c r="F26" s="3">
-        <v>-720200</v>
+        <v>-712900</v>
       </c>
       <c r="G26" s="3">
-        <v>-21900</v>
+        <v>-21700</v>
       </c>
       <c r="H26" s="3">
-        <v>-23200</v>
+        <v>-23000</v>
       </c>
       <c r="I26" s="3">
-        <v>-25200</v>
+        <v>-24900</v>
       </c>
       <c r="J26" s="3">
-        <v>-64300</v>
+        <v>-63600</v>
       </c>
       <c r="K26" s="3">
         <v>-3000</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="E27" s="3">
-        <v>-46800</v>
+        <v>-46300</v>
       </c>
       <c r="F27" s="3">
-        <v>-716300</v>
+        <v>-709000</v>
       </c>
       <c r="G27" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="H27" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="I27" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="J27" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
@@ -1462,7 +1462,7 @@
         <v>-5700</v>
       </c>
       <c r="E29" s="3">
-        <v>-106700</v>
+        <v>-105600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1588,10 +1588,10 @@
         <v>-2200</v>
       </c>
       <c r="I32" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="J32" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="K32" s="3">
         <v>-4300</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E33" s="3">
-        <v>-153500</v>
+        <v>-151900</v>
       </c>
       <c r="F33" s="3">
-        <v>-716300</v>
+        <v>-709000</v>
       </c>
       <c r="G33" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="H33" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="I33" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="J33" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="K33" s="3">
         <v>-2300</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E35" s="3">
-        <v>-153500</v>
+        <v>-151900</v>
       </c>
       <c r="F35" s="3">
-        <v>-716300</v>
+        <v>-709000</v>
       </c>
       <c r="G35" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="H35" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="I35" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="J35" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="K35" s="3">
         <v>-2300</v>
@@ -1800,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>29100</v>
+        <v>28800</v>
       </c>
       <c r="E41" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="F41" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="G41" s="3">
-        <v>75200</v>
+        <v>74400</v>
       </c>
       <c r="H41" s="3">
-        <v>115200</v>
+        <v>114000</v>
       </c>
       <c r="I41" s="3">
-        <v>166300</v>
+        <v>164600</v>
       </c>
       <c r="J41" s="3">
-        <v>189600</v>
+        <v>187600</v>
       </c>
       <c r="K41" s="3">
         <v>154100</v>
@@ -1844,19 +1844,19 @@
         <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="G42" s="3">
-        <v>59900</v>
+        <v>59300</v>
       </c>
       <c r="H42" s="3">
-        <v>66600</v>
+        <v>66000</v>
       </c>
       <c r="I42" s="3">
-        <v>69900</v>
+        <v>69200</v>
       </c>
       <c r="J42" s="3">
-        <v>65600</v>
+        <v>64900</v>
       </c>
       <c r="K42" s="3">
         <v>53500</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>14200</v>
+        <v>14000</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
@@ -1952,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="E45" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="F45" s="3">
-        <v>51000</v>
+        <v>50500</v>
       </c>
       <c r="G45" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="H45" s="3">
-        <v>102200</v>
+        <v>101100</v>
       </c>
       <c r="I45" s="3">
-        <v>76400</v>
+        <v>75600</v>
       </c>
       <c r="J45" s="3">
-        <v>123100</v>
+        <v>121900</v>
       </c>
       <c r="K45" s="3">
         <v>108000</v>
@@ -1990,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="E46" s="3">
-        <v>50700</v>
+        <v>50200</v>
       </c>
       <c r="F46" s="3">
-        <v>67000</v>
+        <v>66300</v>
       </c>
       <c r="G46" s="3">
-        <v>190700</v>
+        <v>188800</v>
       </c>
       <c r="H46" s="3">
-        <v>285500</v>
+        <v>282500</v>
       </c>
       <c r="I46" s="3">
-        <v>312700</v>
+        <v>309500</v>
       </c>
       <c r="J46" s="3">
-        <v>381100</v>
+        <v>377200</v>
       </c>
       <c r="K46" s="3">
         <v>318200</v>
@@ -2037,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>256900</v>
+        <v>254300</v>
       </c>
       <c r="H47" s="3">
-        <v>154800</v>
+        <v>153200</v>
       </c>
       <c r="I47" s="3">
-        <v>153500</v>
+        <v>151900</v>
       </c>
       <c r="J47" s="3">
-        <v>159800</v>
+        <v>158200</v>
       </c>
       <c r="K47" s="3">
         <v>190600</v>
@@ -2075,16 +2075,16 @@
         <v>5300</v>
       </c>
       <c r="G48" s="3">
-        <v>280200</v>
+        <v>277300</v>
       </c>
       <c r="H48" s="3">
-        <v>293100</v>
+        <v>290100</v>
       </c>
       <c r="I48" s="3">
-        <v>296200</v>
+        <v>293200</v>
       </c>
       <c r="J48" s="3">
-        <v>307100</v>
+        <v>303900</v>
       </c>
       <c r="K48" s="3">
         <v>325300</v>
@@ -2113,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>215100</v>
+        <v>212900</v>
       </c>
       <c r="H49" s="3">
-        <v>248700</v>
+        <v>246100</v>
       </c>
       <c r="I49" s="3">
-        <v>252700</v>
+        <v>250100</v>
       </c>
       <c r="J49" s="3">
-        <v>186000</v>
+        <v>184100</v>
       </c>
       <c r="K49" s="3">
         <v>184300</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>61800</v>
+        <v>61200</v>
       </c>
       <c r="H52" s="3">
-        <v>120400</v>
+        <v>119100</v>
       </c>
       <c r="I52" s="3">
-        <v>119300</v>
+        <v>118100</v>
       </c>
       <c r="J52" s="3">
-        <v>68700</v>
+        <v>68000</v>
       </c>
       <c r="K52" s="3">
         <v>61800</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="E54" s="3">
-        <v>52800</v>
+        <v>52200</v>
       </c>
       <c r="F54" s="3">
-        <v>72300</v>
+        <v>71500</v>
       </c>
       <c r="G54" s="3">
-        <v>1004700</v>
+        <v>994400</v>
       </c>
       <c r="H54" s="3">
-        <v>1102400</v>
+        <v>1091100</v>
       </c>
       <c r="I54" s="3">
-        <v>1134400</v>
+        <v>1122800</v>
       </c>
       <c r="J54" s="3">
-        <v>1102600</v>
+        <v>1091400</v>
       </c>
       <c r="K54" s="3">
         <v>1080200</v>
@@ -2402,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>65300</v>
+        <v>64600</v>
       </c>
       <c r="E58" s="3">
-        <v>90200</v>
+        <v>89300</v>
       </c>
       <c r="F58" s="3">
-        <v>145300</v>
+        <v>143900</v>
       </c>
       <c r="G58" s="3">
-        <v>147300</v>
+        <v>145800</v>
       </c>
       <c r="H58" s="3">
-        <v>160100</v>
+        <v>158500</v>
       </c>
       <c r="I58" s="3">
-        <v>155800</v>
+        <v>154200</v>
       </c>
       <c r="J58" s="3">
-        <v>146400</v>
+        <v>144900</v>
       </c>
       <c r="K58" s="3">
         <v>62000</v>
@@ -2440,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>722300</v>
+        <v>714900</v>
       </c>
       <c r="E59" s="3">
-        <v>695900</v>
+        <v>688800</v>
       </c>
       <c r="F59" s="3">
-        <v>532200</v>
+        <v>526700</v>
       </c>
       <c r="G59" s="3">
-        <v>599000</v>
+        <v>592900</v>
       </c>
       <c r="H59" s="3">
-        <v>596700</v>
+        <v>590600</v>
       </c>
       <c r="I59" s="3">
-        <v>579000</v>
+        <v>573100</v>
       </c>
       <c r="J59" s="3">
-        <v>520900</v>
+        <v>515600</v>
       </c>
       <c r="K59" s="3">
         <v>514500</v>
@@ -2478,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>787600</v>
+        <v>779500</v>
       </c>
       <c r="E60" s="3">
-        <v>786100</v>
+        <v>778100</v>
       </c>
       <c r="F60" s="3">
-        <v>677500</v>
+        <v>670600</v>
       </c>
       <c r="G60" s="3">
-        <v>746300</v>
+        <v>738600</v>
       </c>
       <c r="H60" s="3">
-        <v>756900</v>
+        <v>749100</v>
       </c>
       <c r="I60" s="3">
-        <v>734900</v>
+        <v>727300</v>
       </c>
       <c r="J60" s="3">
-        <v>667300</v>
+        <v>660500</v>
       </c>
       <c r="K60" s="3">
         <v>576600</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34600</v>
+        <v>34300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>51900</v>
+        <v>51300</v>
       </c>
       <c r="G61" s="3">
-        <v>102200</v>
+        <v>101100</v>
       </c>
       <c r="H61" s="3">
-        <v>150000</v>
+        <v>148500</v>
       </c>
       <c r="I61" s="3">
-        <v>181400</v>
+        <v>179500</v>
       </c>
       <c r="J61" s="3">
-        <v>187300</v>
+        <v>185400</v>
       </c>
       <c r="K61" s="3">
         <v>186100</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>22200</v>
+        <v>22000</v>
       </c>
       <c r="F62" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="G62" s="3">
-        <v>135500</v>
+        <v>134100</v>
       </c>
       <c r="H62" s="3">
-        <v>151500</v>
+        <v>150000</v>
       </c>
       <c r="I62" s="3">
-        <v>154700</v>
+        <v>153100</v>
       </c>
       <c r="J62" s="3">
-        <v>166800</v>
+        <v>165100</v>
       </c>
       <c r="K62" s="3">
         <v>174800</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>818500</v>
+        <v>810100</v>
       </c>
       <c r="E66" s="3">
-        <v>803200</v>
+        <v>795000</v>
       </c>
       <c r="F66" s="3">
-        <v>737500</v>
+        <v>729900</v>
       </c>
       <c r="G66" s="3">
-        <v>987900</v>
+        <v>977800</v>
       </c>
       <c r="H66" s="3">
-        <v>1063200</v>
+        <v>1052300</v>
       </c>
       <c r="I66" s="3">
-        <v>1076800</v>
+        <v>1065800</v>
       </c>
       <c r="J66" s="3">
-        <v>1026400</v>
+        <v>1015900</v>
       </c>
       <c r="K66" s="3">
         <v>942400</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1612200</v>
+        <v>-1595700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1598600</v>
+        <v>-1582300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1445100</v>
+        <v>-1430300</v>
       </c>
       <c r="G72" s="3">
-        <v>-769900</v>
+        <v>-762100</v>
       </c>
       <c r="H72" s="3">
-        <v>-740400</v>
+        <v>-732900</v>
       </c>
       <c r="I72" s="3">
-        <v>-721400</v>
+        <v>-714000</v>
       </c>
       <c r="J72" s="3">
-        <v>-697100</v>
+        <v>-689900</v>
       </c>
       <c r="K72" s="3">
         <v>-612400</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-769400</v>
+        <v>-761600</v>
       </c>
       <c r="E76" s="3">
-        <v>-750500</v>
+        <v>-742800</v>
       </c>
       <c r="F76" s="3">
-        <v>-665200</v>
+        <v>-658400</v>
       </c>
       <c r="G76" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="H76" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="I76" s="3">
-        <v>57500</v>
+        <v>57000</v>
       </c>
       <c r="J76" s="3">
-        <v>76200</v>
+        <v>75400</v>
       </c>
       <c r="K76" s="3">
         <v>137800</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E81" s="3">
-        <v>-153500</v>
+        <v>-151900</v>
       </c>
       <c r="F81" s="3">
-        <v>-716300</v>
+        <v>-709000</v>
       </c>
       <c r="G81" s="3">
-        <v>-24700</v>
+        <v>-24400</v>
       </c>
       <c r="H81" s="3">
-        <v>-22900</v>
+        <v>-22700</v>
       </c>
       <c r="I81" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="J81" s="3">
-        <v>-65200</v>
+        <v>-64500</v>
       </c>
       <c r="K81" s="3">
         <v>-2300</v>
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -3465,19 +3465,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80900</v>
+        <v>-80000</v>
       </c>
       <c r="E89" s="3">
-        <v>37500</v>
+        <v>37100</v>
       </c>
       <c r="F89" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="G89" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="H89" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -3518,26 +3518,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-20500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -3636,16 +3636,16 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>11900</v>
+        <v>11700</v>
       </c>
       <c r="F94" s="3">
-        <v>-21200</v>
+        <v>-21000</v>
       </c>
       <c r="G94" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H94" s="3">
-        <v>17500</v>
+        <v>17300</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -3842,16 +3842,16 @@
         <v>2500</v>
       </c>
       <c r="E100" s="3">
-        <v>19900</v>
+        <v>19700</v>
       </c>
       <c r="F100" s="3">
-        <v>-134300</v>
+        <v>-132900</v>
       </c>
       <c r="G100" s="3">
-        <v>58600</v>
+        <v>58000</v>
       </c>
       <c r="H100" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3921,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-138000</v>
+        <v>-136600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>486600</v>
+        <v>471700</v>
       </c>
       <c r="G8" s="3">
-        <v>132400</v>
+        <v>128400</v>
       </c>
       <c r="H8" s="3">
-        <v>97300</v>
+        <v>94400</v>
       </c>
       <c r="I8" s="3">
-        <v>143700</v>
+        <v>139300</v>
       </c>
       <c r="J8" s="3">
-        <v>105900</v>
+        <v>102600</v>
       </c>
       <c r="K8" s="3">
         <v>123300</v>
@@ -774,19 +774,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>297600</v>
+        <v>288500</v>
       </c>
       <c r="G9" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="H9" s="3">
-        <v>67700</v>
+        <v>65600</v>
       </c>
       <c r="I9" s="3">
-        <v>91100</v>
+        <v>88300</v>
       </c>
       <c r="J9" s="3">
-        <v>68600</v>
+        <v>66500</v>
       </c>
       <c r="K9" s="3">
         <v>73700</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>189000</v>
+        <v>183200</v>
       </c>
       <c r="G10" s="3">
-        <v>55300</v>
+        <v>53600</v>
       </c>
       <c r="H10" s="3">
-        <v>29600</v>
+        <v>28700</v>
       </c>
       <c r="I10" s="3">
-        <v>52600</v>
+        <v>51000</v>
       </c>
       <c r="J10" s="3">
-        <v>37300</v>
+        <v>36100</v>
       </c>
       <c r="K10" s="3">
         <v>49600</v>
@@ -1028,22 +1028,22 @@
         <v>2800</v>
       </c>
       <c r="E17" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="F17" s="3">
-        <v>1177800</v>
+        <v>1141600</v>
       </c>
       <c r="G17" s="3">
-        <v>148100</v>
+        <v>143600</v>
       </c>
       <c r="H17" s="3">
-        <v>120600</v>
+        <v>116900</v>
       </c>
       <c r="I17" s="3">
-        <v>160200</v>
+        <v>155200</v>
       </c>
       <c r="J17" s="3">
-        <v>116900</v>
+        <v>113300</v>
       </c>
       <c r="K17" s="3">
         <v>130900</v>
@@ -1063,25 +1063,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>-51300</v>
+        <v>-49700</v>
       </c>
       <c r="F18" s="3">
-        <v>-691200</v>
+        <v>-669900</v>
       </c>
       <c r="G18" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="H18" s="3">
-        <v>-23200</v>
+        <v>-22500</v>
       </c>
       <c r="I18" s="3">
-        <v>-16500</v>
+        <v>-15900</v>
       </c>
       <c r="J18" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="K18" s="3">
         <v>-7600</v>
@@ -1123,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="H20" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I20" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="J20" s="3">
-        <v>-48900</v>
+        <v>-47400</v>
       </c>
       <c r="K20" s="3">
         <v>4300</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-669900</v>
+        <v>-649300</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1193,25 +1193,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E22" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="G22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J22" s="3">
         <v>3900</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>4100</v>
       </c>
       <c r="K22" s="3">
         <v>2700</v>
@@ -1231,25 +1231,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="E23" s="3">
-        <v>-52900</v>
+        <v>-51200</v>
       </c>
       <c r="F23" s="3">
-        <v>-708500</v>
+        <v>-686700</v>
       </c>
       <c r="G23" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="H23" s="3">
-        <v>-24700</v>
+        <v>-24000</v>
       </c>
       <c r="I23" s="3">
-        <v>-26500</v>
+        <v>-25700</v>
       </c>
       <c r="J23" s="3">
-        <v>-64000</v>
+        <v>-62000</v>
       </c>
       <c r="K23" s="3">
         <v>-6000</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G24" s="3">
         <v>-1000</v>
@@ -1287,7 +1287,7 @@
         <v>-1500</v>
       </c>
       <c r="J24" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K24" s="3">
         <v>-2900</v>
@@ -1345,25 +1345,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="E26" s="3">
-        <v>-52900</v>
+        <v>-51200</v>
       </c>
       <c r="F26" s="3">
-        <v>-712900</v>
+        <v>-690900</v>
       </c>
       <c r="G26" s="3">
-        <v>-21700</v>
+        <v>-21000</v>
       </c>
       <c r="H26" s="3">
-        <v>-23000</v>
+        <v>-22300</v>
       </c>
       <c r="I26" s="3">
-        <v>-24900</v>
+        <v>-24200</v>
       </c>
       <c r="J26" s="3">
-        <v>-63600</v>
+        <v>-61700</v>
       </c>
       <c r="K26" s="3">
         <v>-3000</v>
@@ -1383,25 +1383,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7800</v>
+        <v>-7600</v>
       </c>
       <c r="E27" s="3">
-        <v>-46300</v>
+        <v>-44900</v>
       </c>
       <c r="F27" s="3">
-        <v>-709000</v>
+        <v>-687200</v>
       </c>
       <c r="G27" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="H27" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="I27" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="J27" s="3">
-        <v>-64500</v>
+        <v>-62600</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
@@ -1459,10 +1459,10 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="E29" s="3">
-        <v>-105600</v>
+        <v>-102400</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H32" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="I32" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="J32" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="K32" s="3">
         <v>-4300</v>
@@ -1611,25 +1611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-151900</v>
+        <v>-147300</v>
       </c>
       <c r="F33" s="3">
-        <v>-709000</v>
+        <v>-687200</v>
       </c>
       <c r="G33" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="H33" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="I33" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="J33" s="3">
-        <v>-64500</v>
+        <v>-62600</v>
       </c>
       <c r="K33" s="3">
         <v>-2300</v>
@@ -1687,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-151900</v>
+        <v>-147300</v>
       </c>
       <c r="F35" s="3">
-        <v>-709000</v>
+        <v>-687200</v>
       </c>
       <c r="G35" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="H35" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="I35" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="J35" s="3">
-        <v>-64500</v>
+        <v>-62600</v>
       </c>
       <c r="K35" s="3">
         <v>-2300</v>
@@ -1800,25 +1800,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>28800</v>
+        <v>27900</v>
       </c>
       <c r="E41" s="3">
-        <v>26500</v>
+        <v>25700</v>
       </c>
       <c r="F41" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="G41" s="3">
-        <v>74400</v>
+        <v>72200</v>
       </c>
       <c r="H41" s="3">
-        <v>114000</v>
+        <v>110500</v>
       </c>
       <c r="I41" s="3">
-        <v>164600</v>
+        <v>159600</v>
       </c>
       <c r="J41" s="3">
-        <v>187600</v>
+        <v>181900</v>
       </c>
       <c r="K41" s="3">
         <v>154100</v>
@@ -1841,22 +1841,22 @@
         <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F42" s="3">
-        <v>11600</v>
+        <v>11200</v>
       </c>
       <c r="G42" s="3">
-        <v>59300</v>
+        <v>57500</v>
       </c>
       <c r="H42" s="3">
-        <v>66000</v>
+        <v>63900</v>
       </c>
       <c r="I42" s="3">
-        <v>69200</v>
+        <v>67100</v>
       </c>
       <c r="J42" s="3">
-        <v>64900</v>
+        <v>62900</v>
       </c>
       <c r="K42" s="3">
         <v>53500</v>
@@ -1885,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="H43" s="3">
         <v>1400</v>
@@ -1894,7 +1894,7 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K43" s="3">
         <v>2600</v>
@@ -1952,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="E45" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="F45" s="3">
-        <v>50500</v>
+        <v>48900</v>
       </c>
       <c r="G45" s="3">
-        <v>41000</v>
+        <v>39700</v>
       </c>
       <c r="H45" s="3">
-        <v>101100</v>
+        <v>98000</v>
       </c>
       <c r="I45" s="3">
-        <v>75600</v>
+        <v>73300</v>
       </c>
       <c r="J45" s="3">
-        <v>121900</v>
+        <v>118100</v>
       </c>
       <c r="K45" s="3">
         <v>108000</v>
@@ -1990,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E46" s="3">
         <v>48600</v>
       </c>
-      <c r="E46" s="3">
-        <v>50200</v>
-      </c>
       <c r="F46" s="3">
-        <v>66300</v>
+        <v>64200</v>
       </c>
       <c r="G46" s="3">
-        <v>188800</v>
+        <v>183000</v>
       </c>
       <c r="H46" s="3">
-        <v>282500</v>
+        <v>273900</v>
       </c>
       <c r="I46" s="3">
-        <v>309500</v>
+        <v>300000</v>
       </c>
       <c r="J46" s="3">
-        <v>377200</v>
+        <v>365600</v>
       </c>
       <c r="K46" s="3">
         <v>318200</v>
@@ -2037,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>254300</v>
+        <v>246500</v>
       </c>
       <c r="H47" s="3">
-        <v>153200</v>
+        <v>148500</v>
       </c>
       <c r="I47" s="3">
-        <v>151900</v>
+        <v>147200</v>
       </c>
       <c r="J47" s="3">
-        <v>158200</v>
+        <v>153300</v>
       </c>
       <c r="K47" s="3">
         <v>190600</v>
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G48" s="3">
-        <v>277300</v>
+        <v>268800</v>
       </c>
       <c r="H48" s="3">
-        <v>290100</v>
+        <v>281200</v>
       </c>
       <c r="I48" s="3">
-        <v>293200</v>
+        <v>284200</v>
       </c>
       <c r="J48" s="3">
-        <v>303900</v>
+        <v>294600</v>
       </c>
       <c r="K48" s="3">
         <v>325300</v>
@@ -2113,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>212900</v>
+        <v>206300</v>
       </c>
       <c r="H49" s="3">
-        <v>246100</v>
+        <v>238600</v>
       </c>
       <c r="I49" s="3">
-        <v>250100</v>
+        <v>242400</v>
       </c>
       <c r="J49" s="3">
-        <v>184100</v>
+        <v>178400</v>
       </c>
       <c r="K49" s="3">
         <v>184300</v>
@@ -2221,22 +2221,22 @@
         <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>61200</v>
+        <v>59300</v>
       </c>
       <c r="H52" s="3">
-        <v>119100</v>
+        <v>115500</v>
       </c>
       <c r="I52" s="3">
-        <v>118100</v>
+        <v>114400</v>
       </c>
       <c r="J52" s="3">
-        <v>68000</v>
+        <v>65900</v>
       </c>
       <c r="K52" s="3">
         <v>61800</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48600</v>
+        <v>47100</v>
       </c>
       <c r="E54" s="3">
-        <v>52200</v>
+        <v>50600</v>
       </c>
       <c r="F54" s="3">
-        <v>71500</v>
+        <v>69300</v>
       </c>
       <c r="G54" s="3">
-        <v>994400</v>
+        <v>963800</v>
       </c>
       <c r="H54" s="3">
-        <v>1091100</v>
+        <v>1057600</v>
       </c>
       <c r="I54" s="3">
-        <v>1122800</v>
+        <v>1088200</v>
       </c>
       <c r="J54" s="3">
-        <v>1091400</v>
+        <v>1057800</v>
       </c>
       <c r="K54" s="3">
         <v>1080200</v>
@@ -2402,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>64600</v>
+        <v>62600</v>
       </c>
       <c r="E58" s="3">
-        <v>89300</v>
+        <v>86500</v>
       </c>
       <c r="F58" s="3">
-        <v>143900</v>
+        <v>139400</v>
       </c>
       <c r="G58" s="3">
-        <v>145800</v>
+        <v>141300</v>
       </c>
       <c r="H58" s="3">
-        <v>158500</v>
+        <v>153600</v>
       </c>
       <c r="I58" s="3">
-        <v>154200</v>
+        <v>149500</v>
       </c>
       <c r="J58" s="3">
-        <v>144900</v>
+        <v>140500</v>
       </c>
       <c r="K58" s="3">
         <v>62000</v>
@@ -2440,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>714900</v>
+        <v>693000</v>
       </c>
       <c r="E59" s="3">
-        <v>688800</v>
+        <v>667600</v>
       </c>
       <c r="F59" s="3">
-        <v>526700</v>
+        <v>510600</v>
       </c>
       <c r="G59" s="3">
-        <v>592900</v>
+        <v>574600</v>
       </c>
       <c r="H59" s="3">
-        <v>590600</v>
+        <v>572500</v>
       </c>
       <c r="I59" s="3">
-        <v>573100</v>
+        <v>555500</v>
       </c>
       <c r="J59" s="3">
-        <v>515600</v>
+        <v>499700</v>
       </c>
       <c r="K59" s="3">
         <v>514500</v>
@@ -2478,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>779500</v>
+        <v>755600</v>
       </c>
       <c r="E60" s="3">
-        <v>778100</v>
+        <v>754100</v>
       </c>
       <c r="F60" s="3">
-        <v>670600</v>
+        <v>650000</v>
       </c>
       <c r="G60" s="3">
-        <v>738600</v>
+        <v>715900</v>
       </c>
       <c r="H60" s="3">
-        <v>749100</v>
+        <v>726100</v>
       </c>
       <c r="I60" s="3">
-        <v>727300</v>
+        <v>705000</v>
       </c>
       <c r="J60" s="3">
-        <v>660500</v>
+        <v>640200</v>
       </c>
       <c r="K60" s="3">
         <v>576600</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>51300</v>
+        <v>49800</v>
       </c>
       <c r="G61" s="3">
-        <v>101100</v>
+        <v>98000</v>
       </c>
       <c r="H61" s="3">
-        <v>148500</v>
+        <v>143900</v>
       </c>
       <c r="I61" s="3">
-        <v>179500</v>
+        <v>174000</v>
       </c>
       <c r="J61" s="3">
-        <v>185400</v>
+        <v>179700</v>
       </c>
       <c r="K61" s="3">
         <v>186100</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>22000</v>
+        <v>21300</v>
       </c>
       <c r="F62" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="G62" s="3">
-        <v>134100</v>
+        <v>130000</v>
       </c>
       <c r="H62" s="3">
-        <v>150000</v>
+        <v>145400</v>
       </c>
       <c r="I62" s="3">
-        <v>153100</v>
+        <v>148400</v>
       </c>
       <c r="J62" s="3">
-        <v>165100</v>
+        <v>160100</v>
       </c>
       <c r="K62" s="3">
         <v>174800</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>810100</v>
+        <v>785200</v>
       </c>
       <c r="E66" s="3">
-        <v>795000</v>
+        <v>770600</v>
       </c>
       <c r="F66" s="3">
-        <v>729900</v>
+        <v>707500</v>
       </c>
       <c r="G66" s="3">
-        <v>977800</v>
+        <v>947700</v>
       </c>
       <c r="H66" s="3">
-        <v>1052300</v>
+        <v>1020000</v>
       </c>
       <c r="I66" s="3">
-        <v>1065800</v>
+        <v>1033000</v>
       </c>
       <c r="J66" s="3">
-        <v>1015900</v>
+        <v>984700</v>
       </c>
       <c r="K66" s="3">
         <v>942400</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1595700</v>
+        <v>-1546700</v>
       </c>
       <c r="E72" s="3">
-        <v>-1582300</v>
+        <v>-1533600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1430300</v>
+        <v>-1386300</v>
       </c>
       <c r="G72" s="3">
-        <v>-762100</v>
+        <v>-738600</v>
       </c>
       <c r="H72" s="3">
-        <v>-732900</v>
+        <v>-710300</v>
       </c>
       <c r="I72" s="3">
-        <v>-714000</v>
+        <v>-692100</v>
       </c>
       <c r="J72" s="3">
-        <v>-689900</v>
+        <v>-668700</v>
       </c>
       <c r="K72" s="3">
         <v>-612400</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-761600</v>
+        <v>-738100</v>
       </c>
       <c r="E76" s="3">
-        <v>-742800</v>
+        <v>-719900</v>
       </c>
       <c r="F76" s="3">
-        <v>-658400</v>
+        <v>-638100</v>
       </c>
       <c r="G76" s="3">
-        <v>16600</v>
+        <v>16100</v>
       </c>
       <c r="H76" s="3">
-        <v>38800</v>
+        <v>37600</v>
       </c>
       <c r="I76" s="3">
-        <v>57000</v>
+        <v>55200</v>
       </c>
       <c r="J76" s="3">
-        <v>75400</v>
+        <v>73100</v>
       </c>
       <c r="K76" s="3">
         <v>137800</v>
@@ -3183,25 +3183,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13500</v>
+        <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-151900</v>
+        <v>-147300</v>
       </c>
       <c r="F81" s="3">
-        <v>-709000</v>
+        <v>-687200</v>
       </c>
       <c r="G81" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="H81" s="3">
-        <v>-22700</v>
+        <v>-22000</v>
       </c>
       <c r="I81" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="J81" s="3">
-        <v>-64500</v>
+        <v>-62600</v>
       </c>
       <c r="K81" s="3">
         <v>-2300</v>
@@ -3243,7 +3243,7 @@
         <v>8</v>
       </c>
       <c r="F83" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
@@ -3465,19 +3465,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-80000</v>
+        <v>-77600</v>
       </c>
       <c r="E89" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="F89" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="G89" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="H89" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
@@ -3636,16 +3636,16 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="F94" s="3">
-        <v>-21000</v>
+        <v>-20400</v>
       </c>
       <c r="G94" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="H94" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
@@ -3839,19 +3839,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E100" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="F100" s="3">
-        <v>-132900</v>
+        <v>-128900</v>
       </c>
       <c r="G100" s="3">
-        <v>58000</v>
+        <v>56200</v>
       </c>
       <c r="H100" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3883,7 +3883,7 @@
         <v>8</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3921,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-136600</v>
+        <v>-132400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>

--- a/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AIU_QTR_FIN.xlsx
@@ -736,19 +736,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>471700</v>
+        <v>472700</v>
       </c>
       <c r="G8" s="3">
-        <v>128400</v>
+        <v>128600</v>
       </c>
       <c r="H8" s="3">
-        <v>94400</v>
+        <v>94600</v>
       </c>
       <c r="I8" s="3">
-        <v>139300</v>
+        <v>139600</v>
       </c>
       <c r="J8" s="3">
-        <v>102600</v>
+        <v>102900</v>
       </c>
       <c r="K8" s="3">
         <v>123300</v>
@@ -774,19 +774,19 @@
         <v>8</v>
       </c>
       <c r="F9" s="3">
-        <v>288500</v>
+        <v>289100</v>
       </c>
       <c r="G9" s="3">
-        <v>74700</v>
+        <v>74900</v>
       </c>
       <c r="H9" s="3">
-        <v>65600</v>
+        <v>65800</v>
       </c>
       <c r="I9" s="3">
-        <v>88300</v>
+        <v>88500</v>
       </c>
       <c r="J9" s="3">
-        <v>66500</v>
+        <v>66600</v>
       </c>
       <c r="K9" s="3">
         <v>73700</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>183200</v>
+        <v>183600</v>
       </c>
       <c r="G10" s="3">
-        <v>53600</v>
+        <v>53700</v>
       </c>
       <c r="H10" s="3">
-        <v>28700</v>
+        <v>28800</v>
       </c>
       <c r="I10" s="3">
-        <v>51000</v>
+        <v>51100</v>
       </c>
       <c r="J10" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="K10" s="3">
         <v>49600</v>
@@ -1028,22 +1028,22 @@
         <v>2800</v>
       </c>
       <c r="E17" s="3">
-        <v>49700</v>
+        <v>49800</v>
       </c>
       <c r="F17" s="3">
-        <v>1141600</v>
+        <v>1144100</v>
       </c>
       <c r="G17" s="3">
-        <v>143600</v>
+        <v>143900</v>
       </c>
       <c r="H17" s="3">
-        <v>116900</v>
+        <v>117100</v>
       </c>
       <c r="I17" s="3">
-        <v>155200</v>
+        <v>155600</v>
       </c>
       <c r="J17" s="3">
-        <v>113300</v>
+        <v>113500</v>
       </c>
       <c r="K17" s="3">
         <v>130900</v>
@@ -1066,19 +1066,19 @@
         <v>-700</v>
       </c>
       <c r="E18" s="3">
-        <v>-49700</v>
+        <v>-49800</v>
       </c>
       <c r="F18" s="3">
-        <v>-669900</v>
+        <v>-671400</v>
       </c>
       <c r="G18" s="3">
         <v>-15200</v>
       </c>
       <c r="H18" s="3">
-        <v>-22500</v>
+        <v>-22600</v>
       </c>
       <c r="I18" s="3">
-        <v>-15900</v>
+        <v>-16000</v>
       </c>
       <c r="J18" s="3">
         <v>-10700</v>
@@ -1135,7 +1135,7 @@
         <v>-5500</v>
       </c>
       <c r="J20" s="3">
-        <v>-47400</v>
+        <v>-47500</v>
       </c>
       <c r="K20" s="3">
         <v>4300</v>
@@ -1161,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="3">
-        <v>-649300</v>
+        <v>-650700</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1199,7 +1199,7 @@
         <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="G22" s="3">
         <v>3800</v>
@@ -1231,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E23" s="3">
-        <v>-51200</v>
+        <v>-51400</v>
       </c>
       <c r="F23" s="3">
-        <v>-686700</v>
+        <v>-688200</v>
       </c>
       <c r="G23" s="3">
         <v>-22000</v>
@@ -1249,7 +1249,7 @@
         <v>-25700</v>
       </c>
       <c r="J23" s="3">
-        <v>-62000</v>
+        <v>-62100</v>
       </c>
       <c r="K23" s="3">
         <v>-6000</v>
@@ -1345,16 +1345,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6200</v>
+        <v>-6300</v>
       </c>
       <c r="E26" s="3">
-        <v>-51200</v>
+        <v>-51400</v>
       </c>
       <c r="F26" s="3">
-        <v>-690900</v>
+        <v>-692400</v>
       </c>
       <c r="G26" s="3">
-        <v>-21000</v>
+        <v>-21100</v>
       </c>
       <c r="H26" s="3">
         <v>-22300</v>
@@ -1363,7 +1363,7 @@
         <v>-24200</v>
       </c>
       <c r="J26" s="3">
-        <v>-61700</v>
+        <v>-61800</v>
       </c>
       <c r="K26" s="3">
         <v>-3000</v>
@@ -1386,10 +1386,10 @@
         <v>-7600</v>
       </c>
       <c r="E27" s="3">
-        <v>-44900</v>
+        <v>-45000</v>
       </c>
       <c r="F27" s="3">
-        <v>-687200</v>
+        <v>-688700</v>
       </c>
       <c r="G27" s="3">
         <v>-23700</v>
@@ -1398,10 +1398,10 @@
         <v>-22000</v>
       </c>
       <c r="I27" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J27" s="3">
-        <v>-62600</v>
+        <v>-62700</v>
       </c>
       <c r="K27" s="3">
         <v>-2300</v>
@@ -1462,7 +1462,7 @@
         <v>-5500</v>
       </c>
       <c r="E29" s="3">
-        <v>-102400</v>
+        <v>-102600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1591,7 +1591,7 @@
         <v>5500</v>
       </c>
       <c r="J32" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="K32" s="3">
         <v>-4300</v>
@@ -1614,10 +1614,10 @@
         <v>-13100</v>
       </c>
       <c r="E33" s="3">
-        <v>-147300</v>
+        <v>-147600</v>
       </c>
       <c r="F33" s="3">
-        <v>-687200</v>
+        <v>-688700</v>
       </c>
       <c r="G33" s="3">
         <v>-23700</v>
@@ -1626,10 +1626,10 @@
         <v>-22000</v>
       </c>
       <c r="I33" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J33" s="3">
-        <v>-62600</v>
+        <v>-62700</v>
       </c>
       <c r="K33" s="3">
         <v>-2300</v>
@@ -1690,10 +1690,10 @@
         <v>-13100</v>
       </c>
       <c r="E35" s="3">
-        <v>-147300</v>
+        <v>-147600</v>
       </c>
       <c r="F35" s="3">
-        <v>-687200</v>
+        <v>-688700</v>
       </c>
       <c r="G35" s="3">
         <v>-23700</v>
@@ -1702,10 +1702,10 @@
         <v>-22000</v>
       </c>
       <c r="I35" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J35" s="3">
-        <v>-62600</v>
+        <v>-62700</v>
       </c>
       <c r="K35" s="3">
         <v>-2300</v>
@@ -1809,16 +1809,16 @@
         <v>4100</v>
       </c>
       <c r="G41" s="3">
-        <v>72200</v>
+        <v>72300</v>
       </c>
       <c r="H41" s="3">
-        <v>110500</v>
+        <v>110800</v>
       </c>
       <c r="I41" s="3">
-        <v>159600</v>
+        <v>159900</v>
       </c>
       <c r="J41" s="3">
-        <v>181900</v>
+        <v>182300</v>
       </c>
       <c r="K41" s="3">
         <v>154100</v>
@@ -1844,19 +1844,19 @@
         <v>900</v>
       </c>
       <c r="F42" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="G42" s="3">
-        <v>57500</v>
+        <v>57600</v>
       </c>
       <c r="H42" s="3">
-        <v>63900</v>
+        <v>64100</v>
       </c>
       <c r="I42" s="3">
-        <v>67100</v>
+        <v>67200</v>
       </c>
       <c r="J42" s="3">
-        <v>62900</v>
+        <v>63000</v>
       </c>
       <c r="K42" s="3">
         <v>53500</v>
@@ -1952,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="E45" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="F45" s="3">
-        <v>48900</v>
+        <v>49000</v>
       </c>
       <c r="G45" s="3">
-        <v>39700</v>
+        <v>39800</v>
       </c>
       <c r="H45" s="3">
-        <v>98000</v>
+        <v>98200</v>
       </c>
       <c r="I45" s="3">
-        <v>73300</v>
+        <v>73500</v>
       </c>
       <c r="J45" s="3">
-        <v>118100</v>
+        <v>118400</v>
       </c>
       <c r="K45" s="3">
         <v>108000</v>
@@ -1990,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="E46" s="3">
-        <v>48600</v>
+        <v>48700</v>
       </c>
       <c r="F46" s="3">
-        <v>64200</v>
+        <v>64400</v>
       </c>
       <c r="G46" s="3">
-        <v>183000</v>
+        <v>183400</v>
       </c>
       <c r="H46" s="3">
-        <v>273900</v>
+        <v>274500</v>
       </c>
       <c r="I46" s="3">
-        <v>300000</v>
+        <v>300700</v>
       </c>
       <c r="J46" s="3">
-        <v>365600</v>
+        <v>366400</v>
       </c>
       <c r="K46" s="3">
         <v>318200</v>
@@ -2037,16 +2037,16 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>246500</v>
+        <v>247000</v>
       </c>
       <c r="H47" s="3">
-        <v>148500</v>
+        <v>148800</v>
       </c>
       <c r="I47" s="3">
-        <v>147200</v>
+        <v>147500</v>
       </c>
       <c r="J47" s="3">
-        <v>153300</v>
+        <v>153700</v>
       </c>
       <c r="K47" s="3">
         <v>190600</v>
@@ -2075,16 +2075,16 @@
         <v>5100</v>
       </c>
       <c r="G48" s="3">
-        <v>268800</v>
+        <v>269400</v>
       </c>
       <c r="H48" s="3">
-        <v>281200</v>
+        <v>281800</v>
       </c>
       <c r="I48" s="3">
-        <v>284200</v>
+        <v>284800</v>
       </c>
       <c r="J48" s="3">
-        <v>294600</v>
+        <v>295200</v>
       </c>
       <c r="K48" s="3">
         <v>325300</v>
@@ -2113,16 +2113,16 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>206300</v>
+        <v>206800</v>
       </c>
       <c r="H49" s="3">
-        <v>238600</v>
+        <v>239100</v>
       </c>
       <c r="I49" s="3">
-        <v>242400</v>
+        <v>242900</v>
       </c>
       <c r="J49" s="3">
-        <v>178400</v>
+        <v>178800</v>
       </c>
       <c r="K49" s="3">
         <v>184300</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>59300</v>
+        <v>59400</v>
       </c>
       <c r="H52" s="3">
-        <v>115500</v>
+        <v>115700</v>
       </c>
       <c r="I52" s="3">
-        <v>114400</v>
+        <v>114700</v>
       </c>
       <c r="J52" s="3">
-        <v>65900</v>
+        <v>66100</v>
       </c>
       <c r="K52" s="3">
         <v>61800</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47100</v>
+        <v>47200</v>
       </c>
       <c r="E54" s="3">
-        <v>50600</v>
+        <v>50700</v>
       </c>
       <c r="F54" s="3">
-        <v>69300</v>
+        <v>69500</v>
       </c>
       <c r="G54" s="3">
-        <v>963800</v>
+        <v>965900</v>
       </c>
       <c r="H54" s="3">
-        <v>1057600</v>
+        <v>1059900</v>
       </c>
       <c r="I54" s="3">
-        <v>1088200</v>
+        <v>1090600</v>
       </c>
       <c r="J54" s="3">
-        <v>1057800</v>
+        <v>1060100</v>
       </c>
       <c r="K54" s="3">
         <v>1080200</v>
@@ -2402,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62600</v>
+        <v>62700</v>
       </c>
       <c r="E58" s="3">
-        <v>86500</v>
+        <v>86700</v>
       </c>
       <c r="F58" s="3">
-        <v>139400</v>
+        <v>139700</v>
       </c>
       <c r="G58" s="3">
-        <v>141300</v>
+        <v>141600</v>
       </c>
       <c r="H58" s="3">
-        <v>153600</v>
+        <v>154000</v>
       </c>
       <c r="I58" s="3">
-        <v>149500</v>
+        <v>149800</v>
       </c>
       <c r="J58" s="3">
-        <v>140500</v>
+        <v>140800</v>
       </c>
       <c r="K58" s="3">
         <v>62000</v>
@@ -2440,25 +2440,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>693000</v>
+        <v>694500</v>
       </c>
       <c r="E59" s="3">
-        <v>667600</v>
+        <v>669100</v>
       </c>
       <c r="F59" s="3">
-        <v>510600</v>
+        <v>511700</v>
       </c>
       <c r="G59" s="3">
-        <v>574600</v>
+        <v>575900</v>
       </c>
       <c r="H59" s="3">
-        <v>572500</v>
+        <v>573700</v>
       </c>
       <c r="I59" s="3">
-        <v>555500</v>
+        <v>556700</v>
       </c>
       <c r="J59" s="3">
-        <v>499700</v>
+        <v>500800</v>
       </c>
       <c r="K59" s="3">
         <v>514500</v>
@@ -2478,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>755600</v>
+        <v>757200</v>
       </c>
       <c r="E60" s="3">
-        <v>754100</v>
+        <v>755800</v>
       </c>
       <c r="F60" s="3">
-        <v>650000</v>
+        <v>651400</v>
       </c>
       <c r="G60" s="3">
-        <v>715900</v>
+        <v>717500</v>
       </c>
       <c r="H60" s="3">
-        <v>726100</v>
+        <v>727700</v>
       </c>
       <c r="I60" s="3">
-        <v>705000</v>
+        <v>706500</v>
       </c>
       <c r="J60" s="3">
-        <v>640200</v>
+        <v>641600</v>
       </c>
       <c r="K60" s="3">
         <v>576600</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>49800</v>
+        <v>49900</v>
       </c>
       <c r="G61" s="3">
-        <v>98000</v>
+        <v>98200</v>
       </c>
       <c r="H61" s="3">
-        <v>143900</v>
+        <v>144200</v>
       </c>
       <c r="I61" s="3">
-        <v>174000</v>
+        <v>174400</v>
       </c>
       <c r="J61" s="3">
-        <v>179700</v>
+        <v>180100</v>
       </c>
       <c r="K61" s="3">
         <v>186100</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="F62" s="3">
         <v>6300</v>
       </c>
       <c r="G62" s="3">
-        <v>130000</v>
+        <v>130300</v>
       </c>
       <c r="H62" s="3">
-        <v>145400</v>
+        <v>145700</v>
       </c>
       <c r="I62" s="3">
-        <v>148400</v>
+        <v>148700</v>
       </c>
       <c r="J62" s="3">
-        <v>160100</v>
+        <v>160400</v>
       </c>
       <c r="K62" s="3">
         <v>174800</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>785200</v>
+        <v>786900</v>
       </c>
       <c r="E66" s="3">
-        <v>770600</v>
+        <v>772300</v>
       </c>
       <c r="F66" s="3">
-        <v>707500</v>
+        <v>709000</v>
       </c>
       <c r="G66" s="3">
-        <v>947700</v>
+        <v>949800</v>
       </c>
       <c r="H66" s="3">
-        <v>1020000</v>
+        <v>1022200</v>
       </c>
       <c r="I66" s="3">
-        <v>1033000</v>
+        <v>1035300</v>
       </c>
       <c r="J66" s="3">
-        <v>984700</v>
+        <v>986800</v>
       </c>
       <c r="K66" s="3">
         <v>942400</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1546700</v>
+        <v>-1550000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1533600</v>
+        <v>-1536900</v>
       </c>
       <c r="F72" s="3">
-        <v>-1386300</v>
+        <v>-1389400</v>
       </c>
       <c r="G72" s="3">
-        <v>-738600</v>
+        <v>-740200</v>
       </c>
       <c r="H72" s="3">
-        <v>-710300</v>
+        <v>-711900</v>
       </c>
       <c r="I72" s="3">
-        <v>-692100</v>
+        <v>-693600</v>
       </c>
       <c r="J72" s="3">
-        <v>-668700</v>
+        <v>-670200</v>
       </c>
       <c r="K72" s="3">
         <v>-612400</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-738100</v>
+        <v>-739800</v>
       </c>
       <c r="E76" s="3">
-        <v>-719900</v>
+        <v>-721500</v>
       </c>
       <c r="F76" s="3">
-        <v>-638100</v>
+        <v>-639500</v>
       </c>
       <c r="G76" s="3">
-        <v>16100</v>
+        <v>16200</v>
       </c>
       <c r="H76" s="3">
-        <v>37600</v>
+        <v>37700</v>
       </c>
       <c r="I76" s="3">
-        <v>55200</v>
+        <v>55300</v>
       </c>
       <c r="J76" s="3">
-        <v>73100</v>
+        <v>73300</v>
       </c>
       <c r="K76" s="3">
         <v>137800</v>
@@ -3186,10 +3186,10 @@
         <v>-13100</v>
       </c>
       <c r="E81" s="3">
-        <v>-147300</v>
+        <v>-147600</v>
       </c>
       <c r="F81" s="3">
-        <v>-687200</v>
+        <v>-688700</v>
       </c>
       <c r="G81" s="3">
         <v>-23700</v>
@@ -3198,10 +3198,10 @@
         <v>-22000</v>
       </c>
       <c r="I81" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J81" s="3">
-        <v>-62600</v>
+        <v>-62700</v>
       </c>
       <c r="K81" s="3">
         <v>-2300</v>
@@ -3465,7 +3465,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-77600</v>
+        <v>-77700</v>
       </c>
       <c r="E89" s="3">
         <v>36000</v>
@@ -3842,16 +3842,16 @@
         <v>2400</v>
       </c>
       <c r="E100" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="F100" s="3">
-        <v>-128900</v>
+        <v>-129100</v>
       </c>
       <c r="G100" s="3">
-        <v>56200</v>
+        <v>56300</v>
       </c>
       <c r="H100" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
@@ -3921,7 +3921,7 @@
         <v>8</v>
       </c>
       <c r="F102" s="3">
-        <v>-132400</v>
+        <v>-132600</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>8</v>
